--- a/ozon.xlsx
+++ b/ozon.xlsx
@@ -28862,8 +28862,8 @@
   </sheetPr>
   <dimension ref="A1:AA224"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C222" activeCellId="0" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -28947,7 +28947,7 @@
       </c>
       <c r="D2" s="60" t="n"/>
       <c r="E2" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="62">
         <f>IF(AND($A2="",$C2="",$E2=""),"",IF(AND(IF(OR($C2&lt;&gt;"",$E2&lt;&gt;""),AND($A2&lt;&gt;"",$C2&lt;&gt;"",$E2&lt;&gt;""),TRUE()),OR($C2&lt;&gt;"",$E2&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A2)&gt;0,"Заполнены","Не заполнены"),IF(AND($A2&lt;&gt;"",$C2&lt;&gt;"",$E2&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29039,7 +29039,7 @@
       </c>
       <c r="D4" s="60" t="n"/>
       <c r="E4" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="62">
         <f>IF(AND($A4="",$C4="",$E4=""),"",IF(AND(IF(OR($C4&lt;&gt;"",$E4&lt;&gt;""),AND($A4&lt;&gt;"",$C4&lt;&gt;"",$E4&lt;&gt;""),TRUE()),OR($C4&lt;&gt;"",$E4&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A4)&gt;0,"Заполнены","Не заполнены"),IF(AND($A4&lt;&gt;"",$C4&lt;&gt;"",$E4&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29085,7 +29085,7 @@
       </c>
       <c r="D5" s="60" t="n"/>
       <c r="E5" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="62">
         <f>IF(AND($A5="",$C5="",$E5=""),"",IF(AND(IF(OR($C5&lt;&gt;"",$E5&lt;&gt;""),AND($A5&lt;&gt;"",$C5&lt;&gt;"",$E5&lt;&gt;""),TRUE()),OR($C5&lt;&gt;"",$E5&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A5)&gt;0,"Заполнены","Не заполнены"),IF(AND($A5&lt;&gt;"",$C5&lt;&gt;"",$E5&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="D6" s="60" t="n"/>
       <c r="E6" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="62">
         <f>IF(AND($A6="",$C6="",$E6=""),"",IF(AND(IF(OR($C6&lt;&gt;"",$E6&lt;&gt;""),AND($A6&lt;&gt;"",$C6&lt;&gt;"",$E6&lt;&gt;""),TRUE()),OR($C6&lt;&gt;"",$E6&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A6)&gt;0,"Заполнены","Не заполнены"),IF(AND($A6&lt;&gt;"",$C6&lt;&gt;"",$E6&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="D7" s="60" t="n"/>
       <c r="E7" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="62">
         <f>IF(AND($A7="",$C7="",$E7=""),"",IF(AND(IF(OR($C7&lt;&gt;"",$E7&lt;&gt;""),AND($A7&lt;&gt;"",$C7&lt;&gt;"",$E7&lt;&gt;""),TRUE()),OR($C7&lt;&gt;"",$E7&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A7)&gt;0,"Заполнены","Не заполнены"),IF(AND($A7&lt;&gt;"",$C7&lt;&gt;"",$E7&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="D8" s="60" t="n"/>
       <c r="E8" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="62">
         <f>IF(AND($A8="",$C8="",$E8=""),"",IF(AND(IF(OR($C8&lt;&gt;"",$E8&lt;&gt;""),AND($A8&lt;&gt;"",$C8&lt;&gt;"",$E8&lt;&gt;""),TRUE()),OR($C8&lt;&gt;"",$E8&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A8)&gt;0,"Заполнены","Не заполнены"),IF(AND($A8&lt;&gt;"",$C8&lt;&gt;"",$E8&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29257,7 +29257,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B9" s="59" t="n"/>
+      <c r="B9" s="59" t="inlineStr">
+        <is>
+          <t>0000062434</t>
+        </is>
+      </c>
       <c r="C9" s="60" t="inlineStr">
         <is>
           <t>ПГЭ 910-01</t>
@@ -29265,7 +29269,7 @@
       </c>
       <c r="D9" s="60" t="n"/>
       <c r="E9" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="62">
         <f>IF(AND($A9="",$C9="",$E9=""),"",IF(AND(IF(OR($C9&lt;&gt;"",$E9&lt;&gt;""),AND($A9&lt;&gt;"",$C9&lt;&gt;"",$E9&lt;&gt;""),TRUE()),OR($C9&lt;&gt;"",$E9&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A9)&gt;0,"Заполнены","Не заполнены"),IF(AND($A9&lt;&gt;"",$C9&lt;&gt;"",$E9&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29311,7 +29315,7 @@
       </c>
       <c r="D10" s="60" t="n"/>
       <c r="E10" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="62">
         <f>IF(AND($A10="",$C10="",$E10=""),"",IF(AND(IF(OR($C10&lt;&gt;"",$E10&lt;&gt;""),AND($A10&lt;&gt;"",$C10&lt;&gt;"",$E10&lt;&gt;""),TRUE()),OR($C10&lt;&gt;"",$E10&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A10)&gt;0,"Заполнены","Не заполнены"),IF(AND($A10&lt;&gt;"",$C10&lt;&gt;"",$E10&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29357,7 +29361,7 @@
       </c>
       <c r="D11" s="60" t="n"/>
       <c r="E11" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="62">
         <f>IF(AND($A11="",$C11="",$E11=""),"",IF(AND(IF(OR($C11&lt;&gt;"",$E11&lt;&gt;""),AND($A11&lt;&gt;"",$C11&lt;&gt;"",$E11&lt;&gt;""),TRUE()),OR($C11&lt;&gt;"",$E11&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A11)&gt;0,"Заполнены","Не заполнены"),IF(AND($A11&lt;&gt;"",$C11&lt;&gt;"",$E11&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29449,7 +29453,7 @@
       </c>
       <c r="D13" s="60" t="n"/>
       <c r="E13" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="62">
         <f>IF(AND($A13="",$C13="",$E13=""),"",IF(AND(IF(OR($C13&lt;&gt;"",$E13&lt;&gt;""),AND($A13&lt;&gt;"",$C13&lt;&gt;"",$E13&lt;&gt;""),TRUE()),OR($C13&lt;&gt;"",$E13&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A13)&gt;0,"Заполнены","Не заполнены"),IF(AND($A13&lt;&gt;"",$C13&lt;&gt;"",$E13&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29495,7 +29499,7 @@
       </c>
       <c r="D14" s="60" t="n"/>
       <c r="E14" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="62">
         <f>IF(AND($A14="",$C14="",$E14=""),"",IF(AND(IF(OR($C14&lt;&gt;"",$E14&lt;&gt;""),AND($A14&lt;&gt;"",$C14&lt;&gt;"",$E14&lt;&gt;""),TRUE()),OR($C14&lt;&gt;"",$E14&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A14)&gt;0,"Заполнены","Не заполнены"),IF(AND($A14&lt;&gt;"",$C14&lt;&gt;"",$E14&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29541,7 +29545,7 @@
       </c>
       <c r="D15" s="60" t="n"/>
       <c r="E15" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="62">
         <f>IF(AND($A15="",$C15="",$E15=""),"",IF(AND(IF(OR($C15&lt;&gt;"",$E15&lt;&gt;""),AND($A15&lt;&gt;"",$C15&lt;&gt;"",$E15&lt;&gt;""),TRUE()),OR($C15&lt;&gt;"",$E15&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A15)&gt;0,"Заполнены","Не заполнены"),IF(AND($A15&lt;&gt;"",$C15&lt;&gt;"",$E15&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29671,7 +29675,7 @@
       </c>
       <c r="D18" s="60" t="n"/>
       <c r="E18" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="62">
         <f>IF(AND($A18="",$C18="",$E18=""),"",IF(AND(IF(OR($C18&lt;&gt;"",$E18&lt;&gt;""),AND($A18&lt;&gt;"",$C18&lt;&gt;"",$E18&lt;&gt;""),TRUE()),OR($C18&lt;&gt;"",$E18&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A18)&gt;0,"Заполнены","Не заполнены"),IF(AND($A18&lt;&gt;"",$C18&lt;&gt;"",$E18&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29717,7 +29721,7 @@
       </c>
       <c r="D19" s="60" t="n"/>
       <c r="E19" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="62">
         <f>IF(AND($A19="",$C19="",$E19=""),"",IF(AND(IF(OR($C19&lt;&gt;"",$E19&lt;&gt;""),AND($A19&lt;&gt;"",$C19&lt;&gt;"",$E19&lt;&gt;""),TRUE()),OR($C19&lt;&gt;"",$E19&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A19)&gt;0,"Заполнены","Не заполнены"),IF(AND($A19&lt;&gt;"",$C19&lt;&gt;"",$E19&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29763,7 +29767,7 @@
       </c>
       <c r="D20" s="60" t="n"/>
       <c r="E20" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="62">
         <f>IF(AND($A20="",$C20="",$E20=""),"",IF(AND(IF(OR($C20&lt;&gt;"",$E20&lt;&gt;""),AND($A20&lt;&gt;"",$C20&lt;&gt;"",$E20&lt;&gt;""),TRUE()),OR($C20&lt;&gt;"",$E20&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A20)&gt;0,"Заполнены","Не заполнены"),IF(AND($A20&lt;&gt;"",$C20&lt;&gt;"",$E20&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29809,7 +29813,7 @@
       </c>
       <c r="D21" s="60" t="n"/>
       <c r="E21" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="62">
         <f>IF(AND($A21="",$C21="",$E21=""),"",IF(AND(IF(OR($C21&lt;&gt;"",$E21&lt;&gt;""),AND($A21&lt;&gt;"",$C21&lt;&gt;"",$E21&lt;&gt;""),TRUE()),OR($C21&lt;&gt;"",$E21&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A21)&gt;0,"Заполнены","Не заполнены"),IF(AND($A21&lt;&gt;"",$C21&lt;&gt;"",$E21&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29855,7 +29859,7 @@
       </c>
       <c r="D22" s="60" t="n"/>
       <c r="E22" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="62">
         <f>IF(AND($A22="",$C22="",$E22=""),"",IF(AND(IF(OR($C22&lt;&gt;"",$E22&lt;&gt;""),AND($A22&lt;&gt;"",$C22&lt;&gt;"",$E22&lt;&gt;""),TRUE()),OR($C22&lt;&gt;"",$E22&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A22)&gt;0,"Заполнены","Не заполнены"),IF(AND($A22&lt;&gt;"",$C22&lt;&gt;"",$E22&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29901,7 +29905,7 @@
       </c>
       <c r="D23" s="60" t="n"/>
       <c r="E23" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="62">
         <f>IF(AND($A23="",$C23="",$E23=""),"",IF(AND(IF(OR($C23&lt;&gt;"",$E23&lt;&gt;""),AND($A23&lt;&gt;"",$C23&lt;&gt;"",$E23&lt;&gt;""),TRUE()),OR($C23&lt;&gt;"",$E23&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A23)&gt;0,"Заполнены","Не заполнены"),IF(AND($A23&lt;&gt;"",$C23&lt;&gt;"",$E23&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29947,7 +29951,7 @@
       </c>
       <c r="D24" s="60" t="n"/>
       <c r="E24" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="62">
         <f>IF(AND($A24="",$C24="",$E24=""),"",IF(AND(IF(OR($C24&lt;&gt;"",$E24&lt;&gt;""),AND($A24&lt;&gt;"",$C24&lt;&gt;"",$E24&lt;&gt;""),TRUE()),OR($C24&lt;&gt;"",$E24&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A24)&gt;0,"Заполнены","Не заполнены"),IF(AND($A24&lt;&gt;"",$C24&lt;&gt;"",$E24&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29993,7 +29997,7 @@
       </c>
       <c r="D25" s="60" t="n"/>
       <c r="E25" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="62">
         <f>IF(AND($A25="",$C25="",$E25=""),"",IF(AND(IF(OR($C25&lt;&gt;"",$E25&lt;&gt;""),AND($A25&lt;&gt;"",$C25&lt;&gt;"",$E25&lt;&gt;""),TRUE()),OR($C25&lt;&gt;"",$E25&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A25)&gt;0,"Заполнены","Не заполнены"),IF(AND($A25&lt;&gt;"",$C25&lt;&gt;"",$E25&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -30711,7 +30715,7 @@
       </c>
       <c r="D42" s="60" t="n"/>
       <c r="E42" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="62">
         <f>IF(AND($A42="",$C42="",$E42=""),"",IF(AND(IF(OR($C42&lt;&gt;"",$E42&lt;&gt;""),AND($A42&lt;&gt;"",$C42&lt;&gt;"",$E42&lt;&gt;""),TRUE()),OR($C42&lt;&gt;"",$E42&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A42)&gt;0,"Заполнены","Не заполнены"),IF(AND($A42&lt;&gt;"",$C42&lt;&gt;"",$E42&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31123,7 +31127,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B52" s="59" t="n"/>
+      <c r="B52" s="59" t="inlineStr">
+        <is>
+          <t>0000031362</t>
+        </is>
+      </c>
       <c r="C52" s="60" t="inlineStr">
         <is>
           <t>ВО 2601</t>
@@ -31131,7 +31139,7 @@
       </c>
       <c r="D52" s="60" t="n"/>
       <c r="E52" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="62">
         <f>IF(AND($A52="",$C52="",$E52=""),"",IF(AND(IF(OR($C52&lt;&gt;"",$E52&lt;&gt;""),AND($A52&lt;&gt;"",$C52&lt;&gt;"",$E52&lt;&gt;""),TRUE()),OR($C52&lt;&gt;"",$E52&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A52)&gt;0,"Заполнены","Не заполнены"),IF(AND($A52&lt;&gt;"",$C52&lt;&gt;"",$E52&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31177,7 +31185,7 @@
       </c>
       <c r="D53" s="60" t="n"/>
       <c r="E53" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="62">
         <f>IF(AND($A53="",$C53="",$E53=""),"",IF(AND(IF(OR($C53&lt;&gt;"",$E53&lt;&gt;""),AND($A53&lt;&gt;"",$C53&lt;&gt;"",$E53&lt;&gt;""),TRUE()),OR($C53&lt;&gt;"",$E53&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A53)&gt;0,"Заполнены","Не заполнены"),IF(AND($A53&lt;&gt;"",$C53&lt;&gt;"",$E53&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31223,7 +31231,7 @@
       </c>
       <c r="D54" s="60" t="n"/>
       <c r="E54" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="62">
         <f>IF(AND($A54="",$C54="",$E54=""),"",IF(AND(IF(OR($C54&lt;&gt;"",$E54&lt;&gt;""),AND($A54&lt;&gt;"",$C54&lt;&gt;"",$E54&lt;&gt;""),TRUE()),OR($C54&lt;&gt;"",$E54&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A54)&gt;0,"Заполнены","Не заполнены"),IF(AND($A54&lt;&gt;"",$C54&lt;&gt;"",$E54&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31269,7 +31277,7 @@
       </c>
       <c r="D55" s="60" t="n"/>
       <c r="E55" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="62">
         <f>IF(AND($A55="",$C55="",$E55=""),"",IF(AND(IF(OR($C55&lt;&gt;"",$E55&lt;&gt;""),AND($A55&lt;&gt;"",$C55&lt;&gt;"",$E55&lt;&gt;""),TRUE()),OR($C55&lt;&gt;"",$E55&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A55)&gt;0,"Заполнены","Не заполнены"),IF(AND($A55&lt;&gt;"",$C55&lt;&gt;"",$E55&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31315,7 +31323,7 @@
       </c>
       <c r="D56" s="60" t="n"/>
       <c r="E56" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="62">
         <f>IF(AND($A56="",$C56="",$E56=""),"",IF(AND(IF(OR($C56&lt;&gt;"",$E56&lt;&gt;""),AND($A56&lt;&gt;"",$C56&lt;&gt;"",$E56&lt;&gt;""),TRUE()),OR($C56&lt;&gt;"",$E56&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A56)&gt;0,"Заполнены","Не заполнены"),IF(AND($A56&lt;&gt;"",$C56&lt;&gt;"",$E56&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31361,7 +31369,7 @@
       </c>
       <c r="D57" s="60" t="n"/>
       <c r="E57" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="62">
         <f>IF(AND($A57="",$C57="",$E57=""),"",IF(AND(IF(OR($C57&lt;&gt;"",$E57&lt;&gt;""),AND($A57&lt;&gt;"",$C57&lt;&gt;"",$E57&lt;&gt;""),TRUE()),OR($C57&lt;&gt;"",$E57&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A57)&gt;0,"Заполнены","Не заполнены"),IF(AND($A57&lt;&gt;"",$C57&lt;&gt;"",$E57&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31407,7 +31415,7 @@
       </c>
       <c r="D58" s="60" t="n"/>
       <c r="E58" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58" s="62">
         <f>IF(AND($A58="",$C58="",$E58=""),"",IF(AND(IF(OR($C58&lt;&gt;"",$E58&lt;&gt;""),AND($A58&lt;&gt;"",$C58&lt;&gt;"",$E58&lt;&gt;""),TRUE()),OR($C58&lt;&gt;"",$E58&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A58)&gt;0,"Заполнены","Не заполнены"),IF(AND($A58&lt;&gt;"",$C58&lt;&gt;"",$E58&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31453,7 +31461,7 @@
       </c>
       <c r="D59" s="60" t="n"/>
       <c r="E59" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" s="62">
         <f>IF(AND($A59="",$C59="",$E59=""),"",IF(AND(IF(OR($C59&lt;&gt;"",$E59&lt;&gt;""),AND($A59&lt;&gt;"",$C59&lt;&gt;"",$E59&lt;&gt;""),TRUE()),OR($C59&lt;&gt;"",$E59&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A59)&gt;0,"Заполнены","Не заполнены"),IF(AND($A59&lt;&gt;"",$C59&lt;&gt;"",$E59&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31575,7 +31583,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B62" s="59" t="n"/>
+      <c r="B62" s="59" t="inlineStr">
+        <is>
+          <t>0000186686</t>
+        </is>
+      </c>
       <c r="C62" s="60" t="inlineStr">
         <is>
           <t>ВО 1604 К83</t>
@@ -31583,7 +31595,7 @@
       </c>
       <c r="D62" s="60" t="n"/>
       <c r="E62" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="62">
         <f>IF(AND($A62="",$C62="",$E62=""),"",IF(AND(IF(OR($C62&lt;&gt;"",$E62&lt;&gt;""),AND($A62&lt;&gt;"",$C62&lt;&gt;"",$E62&lt;&gt;""),TRUE()),OR($C62&lt;&gt;"",$E62&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A62)&gt;0,"Заполнены","Не заполнены"),IF(AND($A62&lt;&gt;"",$C62&lt;&gt;"",$E62&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31713,7 +31725,7 @@
       </c>
       <c r="D65" s="60" t="n"/>
       <c r="E65" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="62">
         <f>IF(AND($A65="",$C65="",$E65=""),"",IF(AND(IF(OR($C65&lt;&gt;"",$E65&lt;&gt;""),AND($A65&lt;&gt;"",$C65&lt;&gt;"",$E65&lt;&gt;""),TRUE()),OR($C65&lt;&gt;"",$E65&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A65)&gt;0,"Заполнены","Не заполнены"),IF(AND($A65&lt;&gt;"",$C65&lt;&gt;"",$E65&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31759,7 +31771,7 @@
       </c>
       <c r="D66" s="60" t="n"/>
       <c r="E66" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" s="62">
         <f>IF(AND($A66="",$C66="",$E66=""),"",IF(AND(IF(OR($C66&lt;&gt;"",$E66&lt;&gt;""),AND($A66&lt;&gt;"",$C66&lt;&gt;"",$E66&lt;&gt;""),TRUE()),OR($C66&lt;&gt;"",$E66&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A66)&gt;0,"Заполнены","Не заполнены"),IF(AND($A66&lt;&gt;"",$C66&lt;&gt;"",$E66&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31805,7 +31817,7 @@
       </c>
       <c r="D67" s="60" t="n"/>
       <c r="E67" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="62">
         <f>IF(AND($A67="",$C67="",$E67=""),"",IF(AND(IF(OR($C67&lt;&gt;"",$E67&lt;&gt;""),AND($A67&lt;&gt;"",$C67&lt;&gt;"",$E67&lt;&gt;""),TRUE()),OR($C67&lt;&gt;"",$E67&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A67)&gt;0,"Заполнены","Не заполнены"),IF(AND($A67&lt;&gt;"",$C67&lt;&gt;"",$E67&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31839,7 +31851,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B68" s="59" t="n"/>
+      <c r="B68" s="59" t="inlineStr">
+        <is>
+          <t>0000186684</t>
+        </is>
+      </c>
       <c r="C68" s="60" t="inlineStr">
         <is>
           <t>ВО 1504 К83</t>
@@ -31847,7 +31863,7 @@
       </c>
       <c r="D68" s="60" t="n"/>
       <c r="E68" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" s="62">
         <f>IF(AND($A68="",$C68="",$E68=""),"",IF(AND(IF(OR($C68&lt;&gt;"",$E68&lt;&gt;""),AND($A68&lt;&gt;"",$C68&lt;&gt;"",$E68&lt;&gt;""),TRUE()),OR($C68&lt;&gt;"",$E68&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A68)&gt;0,"Заполнены","Не заполнены"),IF(AND($A68&lt;&gt;"",$C68&lt;&gt;"",$E68&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31893,7 +31909,7 @@
       </c>
       <c r="D69" s="60" t="n"/>
       <c r="E69" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="62">
         <f>IF(AND($A69="",$C69="",$E69=""),"",IF(AND(IF(OR($C69&lt;&gt;"",$E69&lt;&gt;""),AND($A69&lt;&gt;"",$C69&lt;&gt;"",$E69&lt;&gt;""),TRUE()),OR($C69&lt;&gt;"",$E69&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A69)&gt;0,"Заполнены","Не заполнены"),IF(AND($A69&lt;&gt;"",$C69&lt;&gt;"",$E69&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31939,7 +31955,7 @@
       </c>
       <c r="D70" s="60" t="n"/>
       <c r="E70" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="62">
         <f>IF(AND($A70="",$C70="",$E70=""),"",IF(AND(IF(OR($C70&lt;&gt;"",$E70&lt;&gt;""),AND($A70&lt;&gt;"",$C70&lt;&gt;"",$E70&lt;&gt;""),TRUE()),OR($C70&lt;&gt;"",$E70&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A70)&gt;0,"Заполнены","Не заполнены"),IF(AND($A70&lt;&gt;"",$C70&lt;&gt;"",$E70&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31973,7 +31989,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B71" s="59" t="n"/>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t>0000170544</t>
+        </is>
+      </c>
       <c r="C71" s="60" t="inlineStr">
         <is>
           <t>ВО 1504 К54</t>
@@ -31981,7 +32001,7 @@
       </c>
       <c r="D71" s="60" t="n"/>
       <c r="E71" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="62">
         <f>IF(AND($A71="",$C71="",$E71=""),"",IF(AND(IF(OR($C71&lt;&gt;"",$E71&lt;&gt;""),AND($A71&lt;&gt;"",$C71&lt;&gt;"",$E71&lt;&gt;""),TRUE()),OR($C71&lt;&gt;"",$E71&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A71)&gt;0,"Заполнены","Не заполнены"),IF(AND($A71&lt;&gt;"",$C71&lt;&gt;"",$E71&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32027,7 +32047,7 @@
       </c>
       <c r="D72" s="60" t="n"/>
       <c r="E72" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="62">
         <f>IF(AND($A72="",$C72="",$E72=""),"",IF(AND(IF(OR($C72&lt;&gt;"",$E72&lt;&gt;""),AND($A72&lt;&gt;"",$C72&lt;&gt;"",$E72&lt;&gt;""),TRUE()),OR($C72&lt;&gt;"",$E72&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A72)&gt;0,"Заполнены","Не заполнены"),IF(AND($A72&lt;&gt;"",$C72&lt;&gt;"",$E72&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32073,7 +32093,7 @@
       </c>
       <c r="D73" s="60" t="n"/>
       <c r="E73" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="62">
         <f>IF(AND($A73="",$C73="",$E73=""),"",IF(AND(IF(OR($C73&lt;&gt;"",$E73&lt;&gt;""),AND($A73&lt;&gt;"",$C73&lt;&gt;"",$E73&lt;&gt;""),TRUE()),OR($C73&lt;&gt;"",$E73&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A73)&gt;0,"Заполнены","Не заполнены"),IF(AND($A73&lt;&gt;"",$C73&lt;&gt;"",$E73&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32119,7 +32139,7 @@
       </c>
       <c r="D74" s="60" t="n"/>
       <c r="E74" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="62">
         <f>IF(AND($A74="",$C74="",$E74=""),"",IF(AND(IF(OR($C74&lt;&gt;"",$E74&lt;&gt;""),AND($A74&lt;&gt;"",$C74&lt;&gt;"",$E74&lt;&gt;""),TRUE()),OR($C74&lt;&gt;"",$E74&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A74)&gt;0,"Заполнены","Не заполнены"),IF(AND($A74&lt;&gt;"",$C74&lt;&gt;"",$E74&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32165,7 +32185,7 @@
       </c>
       <c r="D75" s="60" t="n"/>
       <c r="E75" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75" s="62">
         <f>IF(AND($A75="",$C75="",$E75=""),"",IF(AND(IF(OR($C75&lt;&gt;"",$E75&lt;&gt;""),AND($A75&lt;&gt;"",$C75&lt;&gt;"",$E75&lt;&gt;""),TRUE()),OR($C75&lt;&gt;"",$E75&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A75)&gt;0,"Заполнены","Не заполнены"),IF(AND($A75&lt;&gt;"",$C75&lt;&gt;"",$E75&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32421,7 +32441,7 @@
       </c>
       <c r="D81" s="60" t="n"/>
       <c r="E81" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81" s="62">
         <f>IF(AND($A81="",$C81="",$E81=""),"",IF(AND(IF(OR($C81&lt;&gt;"",$E81&lt;&gt;""),AND($A81&lt;&gt;"",$C81&lt;&gt;"",$E81&lt;&gt;""),TRUE()),OR($C81&lt;&gt;"",$E81&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A81)&gt;0,"Заполнены","Не заполнены"),IF(AND($A81&lt;&gt;"",$C81&lt;&gt;"",$E81&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32513,7 +32533,7 @@
       </c>
       <c r="D83" s="60" t="n"/>
       <c r="E83" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="62">
         <f>IF(AND($A83="",$C83="",$E83=""),"",IF(AND(IF(OR($C83&lt;&gt;"",$E83&lt;&gt;""),AND($A83&lt;&gt;"",$C83&lt;&gt;"",$E83&lt;&gt;""),TRUE()),OR($C83&lt;&gt;"",$E83&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A83)&gt;0,"Заполнены","Не заполнены"),IF(AND($A83&lt;&gt;"",$C83&lt;&gt;"",$E83&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32685,7 +32705,7 @@
       </c>
       <c r="D87" s="60" t="n"/>
       <c r="E87" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="62">
         <f>IF(AND($A87="",$C87="",$E87=""),"",IF(AND(IF(OR($C87&lt;&gt;"",$E87&lt;&gt;""),AND($A87&lt;&gt;"",$C87&lt;&gt;"",$E87&lt;&gt;""),TRUE()),OR($C87&lt;&gt;"",$E87&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A87)&gt;0,"Заполнены","Не заполнены"),IF(AND($A87&lt;&gt;"",$C87&lt;&gt;"",$E87&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32731,7 +32751,7 @@
       </c>
       <c r="D88" s="60" t="n"/>
       <c r="E88" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" s="62">
         <f>IF(AND($A88="",$C88="",$E88=""),"",IF(AND(IF(OR($C88&lt;&gt;"",$E88&lt;&gt;""),AND($A88&lt;&gt;"",$C88&lt;&gt;"",$E88&lt;&gt;""),TRUE()),OR($C88&lt;&gt;"",$E88&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A88)&gt;0,"Заполнены","Не заполнены"),IF(AND($A88&lt;&gt;"",$C88&lt;&gt;"",$E88&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32765,7 +32785,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B89" s="59" t="n"/>
+      <c r="B89" s="59" t="inlineStr">
+        <is>
+          <t>0000154975</t>
+        </is>
+      </c>
       <c r="C89" s="60" t="inlineStr">
         <is>
           <t>ВО 1503 К62</t>
@@ -32773,7 +32797,7 @@
       </c>
       <c r="D89" s="60" t="n"/>
       <c r="E89" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89" s="62">
         <f>IF(AND($A89="",$C89="",$E89=""),"",IF(AND(IF(OR($C89&lt;&gt;"",$E89&lt;&gt;""),AND($A89&lt;&gt;"",$C89&lt;&gt;"",$E89&lt;&gt;""),TRUE()),OR($C89&lt;&gt;"",$E89&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A89)&gt;0,"Заполнены","Не заполнены"),IF(AND($A89&lt;&gt;"",$C89&lt;&gt;"",$E89&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32807,7 +32831,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B90" s="59" t="n"/>
+      <c r="B90" s="59" t="inlineStr">
+        <is>
+          <t>0000160122</t>
+        </is>
+      </c>
       <c r="C90" s="60" t="inlineStr">
         <is>
           <t>ВО 1503 К73</t>
@@ -32815,7 +32843,7 @@
       </c>
       <c r="D90" s="60" t="n"/>
       <c r="E90" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" s="62">
         <f>IF(AND($A90="",$C90="",$E90=""),"",IF(AND(IF(OR($C90&lt;&gt;"",$E90&lt;&gt;""),AND($A90&lt;&gt;"",$C90&lt;&gt;"",$E90&lt;&gt;""),TRUE()),OR($C90&lt;&gt;"",$E90&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A90)&gt;0,"Заполнены","Не заполнены"),IF(AND($A90&lt;&gt;"",$C90&lt;&gt;"",$E90&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32907,7 +32935,7 @@
       </c>
       <c r="D92" s="60" t="n"/>
       <c r="E92" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="62">
         <f>IF(AND($A92="",$C92="",$E92=""),"",IF(AND(IF(OR($C92&lt;&gt;"",$E92&lt;&gt;""),AND($A92&lt;&gt;"",$C92&lt;&gt;"",$E92&lt;&gt;""),TRUE()),OR($C92&lt;&gt;"",$E92&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A92)&gt;0,"Заполнены","Не заполнены"),IF(AND($A92&lt;&gt;"",$C92&lt;&gt;"",$E92&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32953,7 +32981,7 @@
       </c>
       <c r="D93" s="60" t="n"/>
       <c r="E93" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="62">
         <f>IF(AND($A93="",$C93="",$E93=""),"",IF(AND(IF(OR($C93&lt;&gt;"",$E93&lt;&gt;""),AND($A93&lt;&gt;"",$C93&lt;&gt;"",$E93&lt;&gt;""),TRUE()),OR($C93&lt;&gt;"",$E93&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A93)&gt;0,"Заполнены","Не заполнены"),IF(AND($A93&lt;&gt;"",$C93&lt;&gt;"",$E93&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33041,7 +33069,7 @@
       </c>
       <c r="D95" s="60" t="n"/>
       <c r="E95" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" s="62">
         <f>IF(AND($A95="",$C95="",$E95=""),"",IF(AND(IF(OR($C95&lt;&gt;"",$E95&lt;&gt;""),AND($A95&lt;&gt;"",$C95&lt;&gt;"",$E95&lt;&gt;""),TRUE()),OR($C95&lt;&gt;"",$E95&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A95)&gt;0,"Заполнены","Не заполнены"),IF(AND($A95&lt;&gt;"",$C95&lt;&gt;"",$E95&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33087,7 +33115,7 @@
       </c>
       <c r="D96" s="60" t="n"/>
       <c r="E96" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="62">
         <f>IF(AND($A96="",$C96="",$E96=""),"",IF(AND(IF(OR($C96&lt;&gt;"",$E96&lt;&gt;""),AND($A96&lt;&gt;"",$C96&lt;&gt;"",$E96&lt;&gt;""),TRUE()),OR($C96&lt;&gt;"",$E96&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A96)&gt;0,"Заполнены","Не заполнены"),IF(AND($A96&lt;&gt;"",$C96&lt;&gt;"",$E96&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33133,7 +33161,7 @@
       </c>
       <c r="D97" s="60" t="n"/>
       <c r="E97" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="62">
         <f>IF(AND($A97="",$C97="",$E97=""),"",IF(AND(IF(OR($C97&lt;&gt;"",$E97&lt;&gt;""),AND($A97&lt;&gt;"",$C97&lt;&gt;"",$E97&lt;&gt;""),TRUE()),OR($C97&lt;&gt;"",$E97&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A97)&gt;0,"Заполнены","Не заполнены"),IF(AND($A97&lt;&gt;"",$C97&lt;&gt;"",$E97&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33225,7 +33253,7 @@
       </c>
       <c r="D99" s="60" t="n"/>
       <c r="E99" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="62">
         <f>IF(AND($A99="",$C99="",$E99=""),"",IF(AND(IF(OR($C99&lt;&gt;"",$E99&lt;&gt;""),AND($A99&lt;&gt;"",$C99&lt;&gt;"",$E99&lt;&gt;""),TRUE()),OR($C99&lt;&gt;"",$E99&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A99)&gt;0,"Заполнены","Не заполнены"),IF(AND($A99&lt;&gt;"",$C99&lt;&gt;"",$E99&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33317,7 +33345,7 @@
       </c>
       <c r="D101" s="60" t="n"/>
       <c r="E101" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="62">
         <f>IF(AND($A101="",$C101="",$E101=""),"",IF(AND(IF(OR($C101&lt;&gt;"",$E101&lt;&gt;""),AND($A101&lt;&gt;"",$C101&lt;&gt;"",$E101&lt;&gt;""),TRUE()),OR($C101&lt;&gt;"",$E101&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A101)&gt;0,"Заполнены","Не заполнены"),IF(AND($A101&lt;&gt;"",$C101&lt;&gt;"",$E101&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33363,7 +33391,7 @@
       </c>
       <c r="D102" s="60" t="n"/>
       <c r="E102" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" s="62">
         <f>IF(AND($A102="",$C102="",$E102=""),"",IF(AND(IF(OR($C102&lt;&gt;"",$E102&lt;&gt;""),AND($A102&lt;&gt;"",$C102&lt;&gt;"",$E102&lt;&gt;""),TRUE()),OR($C102&lt;&gt;"",$E102&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A102)&gt;0,"Заполнены","Не заполнены"),IF(AND($A102&lt;&gt;"",$C102&lt;&gt;"",$E102&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33577,7 +33605,7 @@
       </c>
       <c r="D107" s="60" t="n"/>
       <c r="E107" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="62">
         <f>IF(AND($A107="",$C107="",$E107=""),"",IF(AND(IF(OR($C107&lt;&gt;"",$E107&lt;&gt;""),AND($A107&lt;&gt;"",$C107&lt;&gt;"",$E107&lt;&gt;""),TRUE()),OR($C107&lt;&gt;"",$E107&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A107)&gt;0,"Заполнены","Не заполнены"),IF(AND($A107&lt;&gt;"",$C107&lt;&gt;"",$E107&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33623,7 +33651,7 @@
       </c>
       <c r="D108" s="60" t="n"/>
       <c r="E108" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F108" s="62">
         <f>IF(AND($A108="",$C108="",$E108=""),"",IF(AND(IF(OR($C108&lt;&gt;"",$E108&lt;&gt;""),AND($A108&lt;&gt;"",$C108&lt;&gt;"",$E108&lt;&gt;""),TRUE()),OR($C108&lt;&gt;"",$E108&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A108)&gt;0,"Заполнены","Не заполнены"),IF(AND($A108&lt;&gt;"",$C108&lt;&gt;"",$E108&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33657,7 +33685,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B109" s="59" t="n"/>
+      <c r="B109" s="59" t="inlineStr">
+        <is>
+          <t>0000106700</t>
+        </is>
+      </c>
       <c r="C109" s="60" t="inlineStr">
         <is>
           <t>СГ СН 2340</t>
@@ -33665,7 +33697,7 @@
       </c>
       <c r="D109" s="60" t="n"/>
       <c r="E109" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F109" s="62">
         <f>IF(AND($A109="",$C109="",$E109=""),"",IF(AND(IF(OR($C109&lt;&gt;"",$E109&lt;&gt;""),AND($A109&lt;&gt;"",$C109&lt;&gt;"",$E109&lt;&gt;""),TRUE()),OR($C109&lt;&gt;"",$E109&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A109)&gt;0,"Заполнены","Не заполнены"),IF(AND($A109&lt;&gt;"",$C109&lt;&gt;"",$E109&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33711,7 +33743,7 @@
       </c>
       <c r="D110" s="60" t="n"/>
       <c r="E110" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="62">
         <f>IF(AND($A110="",$C110="",$E110=""),"",IF(AND(IF(OR($C110&lt;&gt;"",$E110&lt;&gt;""),AND($A110&lt;&gt;"",$C110&lt;&gt;"",$E110&lt;&gt;""),TRUE()),OR($C110&lt;&gt;"",$E110&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A110)&gt;0,"Заполнены","Не заполнены"),IF(AND($A110&lt;&gt;"",$C110&lt;&gt;"",$E110&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33757,7 +33789,7 @@
       </c>
       <c r="D111" s="60" t="n"/>
       <c r="E111" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="62">
         <f>IF(AND($A111="",$C111="",$E111=""),"",IF(AND(IF(OR($C111&lt;&gt;"",$E111&lt;&gt;""),AND($A111&lt;&gt;"",$C111&lt;&gt;"",$E111&lt;&gt;""),TRUE()),OR($C111&lt;&gt;"",$E111&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A111)&gt;0,"Заполнены","Не заполнены"),IF(AND($A111&lt;&gt;"",$C111&lt;&gt;"",$E111&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33803,7 +33835,7 @@
       </c>
       <c r="D112" s="60" t="n"/>
       <c r="E112" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112" s="62">
         <f>IF(AND($A112="",$C112="",$E112=""),"",IF(AND(IF(OR($C112&lt;&gt;"",$E112&lt;&gt;""),AND($A112&lt;&gt;"",$C112&lt;&gt;"",$E112&lt;&gt;""),TRUE()),OR($C112&lt;&gt;"",$E112&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A112)&gt;0,"Заполнены","Не заполнены"),IF(AND($A112&lt;&gt;"",$C112&lt;&gt;"",$E112&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33891,7 +33923,7 @@
       </c>
       <c r="D114" s="60" t="n"/>
       <c r="E114" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="62">
         <f>IF(AND($A114="",$C114="",$E114=""),"",IF(AND(IF(OR($C114&lt;&gt;"",$E114&lt;&gt;""),AND($A114&lt;&gt;"",$C114&lt;&gt;"",$E114&lt;&gt;""),TRUE()),OR($C114&lt;&gt;"",$E114&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A114)&gt;0,"Заполнены","Не заполнены"),IF(AND($A114&lt;&gt;"",$C114&lt;&gt;"",$E114&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33937,7 +33969,7 @@
       </c>
       <c r="D115" s="60" t="n"/>
       <c r="E115" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" s="62">
         <f>IF(AND($A115="",$C115="",$E115=""),"",IF(AND(IF(OR($C115&lt;&gt;"",$E115&lt;&gt;""),AND($A115&lt;&gt;"",$C115&lt;&gt;"",$E115&lt;&gt;""),TRUE()),OR($C115&lt;&gt;"",$E115&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A115)&gt;0,"Заполнены","Не заполнены"),IF(AND($A115&lt;&gt;"",$C115&lt;&gt;"",$E115&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34025,7 +34057,7 @@
       </c>
       <c r="D117" s="60" t="n"/>
       <c r="E117" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" s="62">
         <f>IF(AND($A117="",$C117="",$E117=""),"",IF(AND(IF(OR($C117&lt;&gt;"",$E117&lt;&gt;""),AND($A117&lt;&gt;"",$C117&lt;&gt;"",$E117&lt;&gt;""),TRUE()),OR($C117&lt;&gt;"",$E117&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A117)&gt;0,"Заполнены","Не заполнены"),IF(AND($A117&lt;&gt;"",$C117&lt;&gt;"",$E117&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34101,7 +34133,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B119" s="59" t="n"/>
+      <c r="B119" s="59" t="inlineStr">
+        <is>
+          <t>0000169875</t>
+        </is>
+      </c>
       <c r="C119" s="60" t="inlineStr">
         <is>
           <t>СГ СН 2340 К33</t>
@@ -34109,7 +34145,7 @@
       </c>
       <c r="D119" s="60" t="n"/>
       <c r="E119" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" s="62">
         <f>IF(AND($A119="",$C119="",$E119=""),"",IF(AND(IF(OR($C119&lt;&gt;"",$E119&lt;&gt;""),AND($A119&lt;&gt;"",$C119&lt;&gt;"",$E119&lt;&gt;""),TRUE()),OR($C119&lt;&gt;"",$E119&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A119)&gt;0,"Заполнены","Не заполнены"),IF(AND($A119&lt;&gt;"",$C119&lt;&gt;"",$E119&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34239,7 +34275,7 @@
       </c>
       <c r="D122" s="60" t="n"/>
       <c r="E122" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="62">
         <f>IF(AND($A122="",$C122="",$E122=""),"",IF(AND(IF(OR($C122&lt;&gt;"",$E122&lt;&gt;""),AND($A122&lt;&gt;"",$C122&lt;&gt;"",$E122&lt;&gt;""),TRUE()),OR($C122&lt;&gt;"",$E122&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A122)&gt;0,"Заполнены","Не заполнены"),IF(AND($A122&lt;&gt;"",$C122&lt;&gt;"",$E122&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34285,7 +34321,7 @@
       </c>
       <c r="D123" s="60" t="n"/>
       <c r="E123" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="62">
         <f>IF(AND($A123="",$C123="",$E123=""),"",IF(AND(IF(OR($C123&lt;&gt;"",$E123&lt;&gt;""),AND($A123&lt;&gt;"",$C123&lt;&gt;"",$E123&lt;&gt;""),TRUE()),OR($C123&lt;&gt;"",$E123&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A123)&gt;0,"Заполнены","Не заполнены"),IF(AND($A123&lt;&gt;"",$C123&lt;&gt;"",$E123&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34377,7 +34413,7 @@
       </c>
       <c r="D125" s="60" t="n"/>
       <c r="E125" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125" s="62">
         <f>IF(AND($A125="",$C125="",$E125=""),"",IF(AND(IF(OR($C125&lt;&gt;"",$E125&lt;&gt;""),AND($A125&lt;&gt;"",$C125&lt;&gt;"",$E125&lt;&gt;""),TRUE()),OR($C125&lt;&gt;"",$E125&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A125)&gt;0,"Заполнены","Не заполнены"),IF(AND($A125&lt;&gt;"",$C125&lt;&gt;"",$E125&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34423,7 +34459,7 @@
       </c>
       <c r="D126" s="60" t="n"/>
       <c r="E126" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="62">
         <f>IF(AND($A126="",$C126="",$E126=""),"",IF(AND(IF(OR($C126&lt;&gt;"",$E126&lt;&gt;""),AND($A126&lt;&gt;"",$C126&lt;&gt;"",$E126&lt;&gt;""),TRUE()),OR($C126&lt;&gt;"",$E126&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A126)&gt;0,"Заполнены","Не заполнены"),IF(AND($A126&lt;&gt;"",$C126&lt;&gt;"",$E126&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34469,7 +34505,7 @@
       </c>
       <c r="D127" s="60" t="n"/>
       <c r="E127" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="62">
         <f>IF(AND($A127="",$C127="",$E127=""),"",IF(AND(IF(OR($C127&lt;&gt;"",$E127&lt;&gt;""),AND($A127&lt;&gt;"",$C127&lt;&gt;"",$E127&lt;&gt;""),TRUE()),OR($C127&lt;&gt;"",$E127&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A127)&gt;0,"Заполнены","Не заполнены"),IF(AND($A127&lt;&gt;"",$C127&lt;&gt;"",$E127&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34515,7 +34551,7 @@
       </c>
       <c r="D128" s="60" t="n"/>
       <c r="E128" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F128" s="62">
         <f>IF(AND($A128="",$C128="",$E128=""),"",IF(AND(IF(OR($C128&lt;&gt;"",$E128&lt;&gt;""),AND($A128&lt;&gt;"",$C128&lt;&gt;"",$E128&lt;&gt;""),TRUE()),OR($C128&lt;&gt;"",$E128&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A128)&gt;0,"Заполнены","Не заполнены"),IF(AND($A128&lt;&gt;"",$C128&lt;&gt;"",$E128&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34603,7 +34639,7 @@
       </c>
       <c r="D130" s="60" t="n"/>
       <c r="E130" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="62">
         <f>IF(AND($A130="",$C130="",$E130=""),"",IF(AND(IF(OR($C130&lt;&gt;"",$E130&lt;&gt;""),AND($A130&lt;&gt;"",$C130&lt;&gt;"",$E130&lt;&gt;""),TRUE()),OR($C130&lt;&gt;"",$E130&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A130)&gt;0,"Заполнены","Не заполнены"),IF(AND($A130&lt;&gt;"",$C130&lt;&gt;"",$E130&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34637,7 +34673,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B131" s="59" t="n"/>
+      <c r="B131" s="59" t="inlineStr">
+        <is>
+          <t>0000235730</t>
+        </is>
+      </c>
       <c r="C131" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2231-03 Р32</t>
@@ -34645,7 +34685,7 @@
       </c>
       <c r="D131" s="60" t="n"/>
       <c r="E131" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="62">
         <f>IF(AND($A131="",$C131="",$E131=""),"",IF(AND(IF(OR($C131&lt;&gt;"",$E131&lt;&gt;""),AND($A131&lt;&gt;"",$C131&lt;&gt;"",$E131&lt;&gt;""),TRUE()),OR($C131&lt;&gt;"",$E131&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A131)&gt;0,"Заполнены","Не заполнены"),IF(AND($A131&lt;&gt;"",$C131&lt;&gt;"",$E131&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34691,7 +34731,7 @@
       </c>
       <c r="D132" s="60" t="n"/>
       <c r="E132" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="62">
         <f>IF(AND($A132="",$C132="",$E132=""),"",IF(AND(IF(OR($C132&lt;&gt;"",$E132&lt;&gt;""),AND($A132&lt;&gt;"",$C132&lt;&gt;"",$E132&lt;&gt;""),TRUE()),OR($C132&lt;&gt;"",$E132&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A132)&gt;0,"Заполнены","Не заполнены"),IF(AND($A132&lt;&gt;"",$C132&lt;&gt;"",$E132&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34737,7 +34777,7 @@
       </c>
       <c r="D133" s="60" t="n"/>
       <c r="E133" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="62">
         <f>IF(AND($A133="",$C133="",$E133=""),"",IF(AND(IF(OR($C133&lt;&gt;"",$E133&lt;&gt;""),AND($A133&lt;&gt;"",$C133&lt;&gt;"",$E133&lt;&gt;""),TRUE()),OR($C133&lt;&gt;"",$E133&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A133)&gt;0,"Заполнены","Не заполнены"),IF(AND($A133&lt;&gt;"",$C133&lt;&gt;"",$E133&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34783,7 +34823,7 @@
       </c>
       <c r="D134" s="60" t="n"/>
       <c r="E134" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="62">
         <f>IF(AND($A134="",$C134="",$E134=""),"",IF(AND(IF(OR($C134&lt;&gt;"",$E134&lt;&gt;""),AND($A134&lt;&gt;"",$C134&lt;&gt;"",$E134&lt;&gt;""),TRUE()),OR($C134&lt;&gt;"",$E134&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A134)&gt;0,"Заполнены","Не заполнены"),IF(AND($A134&lt;&gt;"",$C134&lt;&gt;"",$E134&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35089,7 +35129,7 @@
       </c>
       <c r="D141" s="60" t="n"/>
       <c r="E141" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F141" s="62">
         <f>IF(AND($A141="",$C141="",$E141=""),"",IF(AND(IF(OR($C141&lt;&gt;"",$E141&lt;&gt;""),AND($A141&lt;&gt;"",$C141&lt;&gt;"",$E141&lt;&gt;""),TRUE()),OR($C141&lt;&gt;"",$E141&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A141)&gt;0,"Заполнены","Не заполнены"),IF(AND($A141&lt;&gt;"",$C141&lt;&gt;"",$E141&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35135,7 +35175,7 @@
       </c>
       <c r="D142" s="60" t="n"/>
       <c r="E142" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F142" s="62">
         <f>IF(AND($A142="",$C142="",$E142=""),"",IF(AND(IF(OR($C142&lt;&gt;"",$E142&lt;&gt;""),AND($A142&lt;&gt;"",$C142&lt;&gt;"",$E142&lt;&gt;""),TRUE()),OR($C142&lt;&gt;"",$E142&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A142)&gt;0,"Заполнены","Не заполнены"),IF(AND($A142&lt;&gt;"",$C142&lt;&gt;"",$E142&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35181,7 +35221,7 @@
       </c>
       <c r="D143" s="60" t="n"/>
       <c r="E143" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="62">
         <f>IF(AND($A143="",$C143="",$E143=""),"",IF(AND(IF(OR($C143&lt;&gt;"",$E143&lt;&gt;""),AND($A143&lt;&gt;"",$C143&lt;&gt;"",$E143&lt;&gt;""),TRUE()),OR($C143&lt;&gt;"",$E143&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A143)&gt;0,"Заполнены","Не заполнены"),IF(AND($A143&lt;&gt;"",$C143&lt;&gt;"",$E143&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35227,7 +35267,7 @@
       </c>
       <c r="D144" s="60" t="n"/>
       <c r="E144" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F144" s="62">
         <f>IF(AND($A144="",$C144="",$E144=""),"",IF(AND(IF(OR($C144&lt;&gt;"",$E144&lt;&gt;""),AND($A144&lt;&gt;"",$C144&lt;&gt;"",$E144&lt;&gt;""),TRUE()),OR($C144&lt;&gt;"",$E144&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A144)&gt;0,"Заполнены","Не заполнены"),IF(AND($A144&lt;&gt;"",$C144&lt;&gt;"",$E144&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35273,7 +35313,7 @@
       </c>
       <c r="D145" s="60" t="n"/>
       <c r="E145" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F145" s="62">
         <f>IF(AND($A145="",$C145="",$E145=""),"",IF(AND(IF(OR($C145&lt;&gt;"",$E145&lt;&gt;""),AND($A145&lt;&gt;"",$C145&lt;&gt;"",$E145&lt;&gt;""),TRUE()),OR($C145&lt;&gt;"",$E145&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A145)&gt;0,"Заполнены","Не заполнены"),IF(AND($A145&lt;&gt;"",$C145&lt;&gt;"",$E145&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35433,7 +35473,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B149" s="59" t="n"/>
+      <c r="B149" s="59" t="inlineStr">
+        <is>
+          <t>0000095462</t>
+        </is>
+      </c>
       <c r="C149" s="60" t="inlineStr">
         <is>
           <t>СГ СН 2120 К1</t>
@@ -35441,7 +35485,7 @@
       </c>
       <c r="D149" s="60" t="n"/>
       <c r="E149" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149" s="62">
         <f>IF(AND($A149="",$C149="",$E149=""),"",IF(AND(IF(OR($C149&lt;&gt;"",$E149&lt;&gt;""),AND($A149&lt;&gt;"",$C149&lt;&gt;"",$E149&lt;&gt;""),TRUE()),OR($C149&lt;&gt;"",$E149&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A149)&gt;0,"Заполнены","Не заполнены"),IF(AND($A149&lt;&gt;"",$C149&lt;&gt;"",$E149&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35487,7 +35531,7 @@
       </c>
       <c r="D150" s="60" t="n"/>
       <c r="E150" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F150" s="62">
         <f>IF(AND($A150="",$C150="",$E150=""),"",IF(AND(IF(OR($C150&lt;&gt;"",$E150&lt;&gt;""),AND($A150&lt;&gt;"",$C150&lt;&gt;"",$E150&lt;&gt;""),TRUE()),OR($C150&lt;&gt;"",$E150&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A150)&gt;0,"Заполнены","Не заполнены"),IF(AND($A150&lt;&gt;"",$C150&lt;&gt;"",$E150&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35617,7 +35661,7 @@
       </c>
       <c r="D153" s="60" t="n"/>
       <c r="E153" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="62">
         <f>IF(AND($A153="",$C153="",$E153=""),"",IF(AND(IF(OR($C153&lt;&gt;"",$E153&lt;&gt;""),AND($A153&lt;&gt;"",$C153&lt;&gt;"",$E153&lt;&gt;""),TRUE()),OR($C153&lt;&gt;"",$E153&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A153)&gt;0,"Заполнены","Не заполнены"),IF(AND($A153&lt;&gt;"",$C153&lt;&gt;"",$E153&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35651,7 +35695,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B154" s="59" t="n"/>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t>0000092460</t>
+        </is>
+      </c>
       <c r="C154" s="60" t="inlineStr">
         <is>
           <t>СГ СВН 2230 К11</t>
@@ -35659,7 +35707,7 @@
       </c>
       <c r="D154" s="60" t="n"/>
       <c r="E154" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="62">
         <f>IF(AND($A154="",$C154="",$E154=""),"",IF(AND(IF(OR($C154&lt;&gt;"",$E154&lt;&gt;""),AND($A154&lt;&gt;"",$C154&lt;&gt;"",$E154&lt;&gt;""),TRUE()),OR($C154&lt;&gt;"",$E154&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A154)&gt;0,"Заполнены","Не заполнены"),IF(AND($A154&lt;&gt;"",$C154&lt;&gt;"",$E154&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35747,7 +35795,7 @@
       </c>
       <c r="D156" s="60" t="n"/>
       <c r="E156" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="62">
         <f>IF(AND($A156="",$C156="",$E156=""),"",IF(AND(IF(OR($C156&lt;&gt;"",$E156&lt;&gt;""),AND($A156&lt;&gt;"",$C156&lt;&gt;"",$E156&lt;&gt;""),TRUE()),OR($C156&lt;&gt;"",$E156&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A156)&gt;0,"Заполнены","Не заполнены"),IF(AND($A156&lt;&gt;"",$C156&lt;&gt;"",$E156&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35793,7 +35841,7 @@
       </c>
       <c r="D157" s="60" t="n"/>
       <c r="E157" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F157" s="62">
         <f>IF(AND($A157="",$C157="",$E157=""),"",IF(AND(IF(OR($C157&lt;&gt;"",$E157&lt;&gt;""),AND($A157&lt;&gt;"",$C157&lt;&gt;"",$E157&lt;&gt;""),TRUE()),OR($C157&lt;&gt;"",$E157&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A157)&gt;0,"Заполнены","Не заполнены"),IF(AND($A157&lt;&gt;"",$C157&lt;&gt;"",$E157&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35839,7 +35887,7 @@
       </c>
       <c r="D158" s="60" t="n"/>
       <c r="E158" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" s="62">
         <f>IF(AND($A158="",$C158="",$E158=""),"",IF(AND(IF(OR($C158&lt;&gt;"",$E158&lt;&gt;""),AND($A158&lt;&gt;"",$C158&lt;&gt;"",$E158&lt;&gt;""),TRUE()),OR($C158&lt;&gt;"",$E158&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A158)&gt;0,"Заполнены","Не заполнены"),IF(AND($A158&lt;&gt;"",$C158&lt;&gt;"",$E158&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35885,7 +35933,7 @@
       </c>
       <c r="D159" s="60" t="n"/>
       <c r="E159" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F159" s="62">
         <f>IF(AND($A159="",$C159="",$E159=""),"",IF(AND(IF(OR($C159&lt;&gt;"",$E159&lt;&gt;""),AND($A159&lt;&gt;"",$C159&lt;&gt;"",$E159&lt;&gt;""),TRUE()),OR($C159&lt;&gt;"",$E159&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A159)&gt;0,"Заполнены","Не заполнены"),IF(AND($A159&lt;&gt;"",$C159&lt;&gt;"",$E159&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35931,7 +35979,7 @@
       </c>
       <c r="D160" s="60" t="n"/>
       <c r="E160" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" s="62">
         <f>IF(AND($A160="",$C160="",$E160=""),"",IF(AND(IF(OR($C160&lt;&gt;"",$E160&lt;&gt;""),AND($A160&lt;&gt;"",$C160&lt;&gt;"",$E160&lt;&gt;""),TRUE()),OR($C160&lt;&gt;"",$E160&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A160)&gt;0,"Заполнены","Не заполнены"),IF(AND($A160&lt;&gt;"",$C160&lt;&gt;"",$E160&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35965,7 +36013,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B161" s="59" t="n"/>
+      <c r="B161" s="59" t="inlineStr">
+        <is>
+          <t>0000207269</t>
+        </is>
+      </c>
       <c r="C161" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2100-01 K33</t>
@@ -35973,7 +36025,7 @@
       </c>
       <c r="D161" s="60" t="n"/>
       <c r="E161" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="62">
         <f>IF(AND($A161="",$C161="",$E161=""),"",IF(AND(IF(OR($C161&lt;&gt;"",$E161&lt;&gt;""),AND($A161&lt;&gt;"",$C161&lt;&gt;"",$E161&lt;&gt;""),TRUE()),OR($C161&lt;&gt;"",$E161&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A161)&gt;0,"Заполнены","Не заполнены"),IF(AND($A161&lt;&gt;"",$C161&lt;&gt;"",$E161&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36019,7 +36071,7 @@
       </c>
       <c r="D162" s="60" t="n"/>
       <c r="E162" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F162" s="62">
         <f>IF(AND($A162="",$C162="",$E162=""),"",IF(AND(IF(OR($C162&lt;&gt;"",$E162&lt;&gt;""),AND($A162&lt;&gt;"",$C162&lt;&gt;"",$E162&lt;&gt;""),TRUE()),OR($C162&lt;&gt;"",$E162&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A162)&gt;0,"Заполнены","Не заполнены"),IF(AND($A162&lt;&gt;"",$C162&lt;&gt;"",$E162&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36065,7 +36117,7 @@
       </c>
       <c r="D163" s="60" t="n"/>
       <c r="E163" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F163" s="62">
         <f>IF(AND($A163="",$C163="",$E163=""),"",IF(AND(IF(OR($C163&lt;&gt;"",$E163&lt;&gt;""),AND($A163&lt;&gt;"",$C163&lt;&gt;"",$E163&lt;&gt;""),TRUE()),OR($C163&lt;&gt;"",$E163&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A163)&gt;0,"Заполнены","Не заполнены"),IF(AND($A163&lt;&gt;"",$C163&lt;&gt;"",$E163&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36111,7 +36163,7 @@
       </c>
       <c r="D164" s="60" t="n"/>
       <c r="E164" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" s="62">
         <f>IF(AND($A164="",$C164="",$E164=""),"",IF(AND(IF(OR($C164&lt;&gt;"",$E164&lt;&gt;""),AND($A164&lt;&gt;"",$C164&lt;&gt;"",$E164&lt;&gt;""),TRUE()),OR($C164&lt;&gt;"",$E164&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A164)&gt;0,"Заполнены","Не заполнены"),IF(AND($A164&lt;&gt;"",$C164&lt;&gt;"",$E164&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36291,7 +36343,7 @@
       </c>
       <c r="D168" s="60" t="n"/>
       <c r="E168" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F168" s="62">
         <f>IF(AND($A168="",$C168="",$E168=""),"",IF(AND(IF(OR($C168&lt;&gt;"",$E168&lt;&gt;""),AND($A168&lt;&gt;"",$C168&lt;&gt;"",$E168&lt;&gt;""),TRUE()),OR($C168&lt;&gt;"",$E168&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A168)&gt;0,"Заполнены","Не заполнены"),IF(AND($A168&lt;&gt;"",$C168&lt;&gt;"",$E168&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36337,7 +36389,7 @@
       </c>
       <c r="D169" s="60" t="n"/>
       <c r="E169" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" s="62">
         <f>IF(AND($A169="",$C169="",$E169=""),"",IF(AND(IF(OR($C169&lt;&gt;"",$E169&lt;&gt;""),AND($A169&lt;&gt;"",$C169&lt;&gt;"",$E169&lt;&gt;""),TRUE()),OR($C169&lt;&gt;"",$E169&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A169)&gt;0,"Заполнены","Не заполнены"),IF(AND($A169&lt;&gt;"",$C169&lt;&gt;"",$E169&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36383,7 +36435,7 @@
       </c>
       <c r="D170" s="60" t="n"/>
       <c r="E170" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F170" s="62">
         <f>IF(AND($A170="",$C170="",$E170=""),"",IF(AND(IF(OR($C170&lt;&gt;"",$E170&lt;&gt;""),AND($A170&lt;&gt;"",$C170&lt;&gt;"",$E170&lt;&gt;""),TRUE()),OR($C170&lt;&gt;"",$E170&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A170)&gt;0,"Заполнены","Не заполнены"),IF(AND($A170&lt;&gt;"",$C170&lt;&gt;"",$E170&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36429,7 +36481,7 @@
       </c>
       <c r="D171" s="60" t="n"/>
       <c r="E171" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F171" s="62">
         <f>IF(AND($A171="",$C171="",$E171=""),"",IF(AND(IF(OR($C171&lt;&gt;"",$E171&lt;&gt;""),AND($A171&lt;&gt;"",$C171&lt;&gt;"",$E171&lt;&gt;""),TRUE()),OR($C171&lt;&gt;"",$E171&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A171)&gt;0,"Заполнены","Не заполнены"),IF(AND($A171&lt;&gt;"",$C171&lt;&gt;"",$E171&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36475,7 +36527,7 @@
       </c>
       <c r="D172" s="60" t="n"/>
       <c r="E172" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F172" s="62">
         <f>IF(AND($A172="",$C172="",$E172=""),"",IF(AND(IF(OR($C172&lt;&gt;"",$E172&lt;&gt;""),AND($A172&lt;&gt;"",$C172&lt;&gt;"",$E172&lt;&gt;""),TRUE()),OR($C172&lt;&gt;"",$E172&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A172)&gt;0,"Заполнены","Не заполнены"),IF(AND($A172&lt;&gt;"",$C172&lt;&gt;"",$E172&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36605,7 +36657,7 @@
       </c>
       <c r="D175" s="60" t="n"/>
       <c r="E175" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="62">
         <f>IF(AND($A175="",$C175="",$E175=""),"",IF(AND(IF(OR($C175&lt;&gt;"",$E175&lt;&gt;""),AND($A175&lt;&gt;"",$C175&lt;&gt;"",$E175&lt;&gt;""),TRUE()),OR($C175&lt;&gt;"",$E175&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A175)&gt;0,"Заполнены","Не заполнены"),IF(AND($A175&lt;&gt;"",$C175&lt;&gt;"",$E175&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36697,7 +36749,7 @@
       </c>
       <c r="D177" s="60" t="n"/>
       <c r="E177" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="62">
         <f>IF(AND($A177="",$C177="",$E177=""),"",IF(AND(IF(OR($C177&lt;&gt;"",$E177&lt;&gt;""),AND($A177&lt;&gt;"",$C177&lt;&gt;"",$E177&lt;&gt;""),TRUE()),OR($C177&lt;&gt;"",$E177&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A177)&gt;0,"Заполнены","Не заполнены"),IF(AND($A177&lt;&gt;"",$C177&lt;&gt;"",$E177&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36881,7 +36933,7 @@
       </c>
       <c r="D181" s="60" t="n"/>
       <c r="E181" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F181" s="62">
         <f>IF(AND($A181="",$C181="",$E181=""),"",IF(AND(IF(OR($C181&lt;&gt;"",$E181&lt;&gt;""),AND($A181&lt;&gt;"",$C181&lt;&gt;"",$E181&lt;&gt;""),TRUE()),OR($C181&lt;&gt;"",$E181&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A181)&gt;0,"Заполнены","Не заполнены"),IF(AND($A181&lt;&gt;"",$C181&lt;&gt;"",$E181&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36927,7 +36979,7 @@
       </c>
       <c r="D182" s="60" t="n"/>
       <c r="E182" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="62">
         <f>IF(AND($A182="",$C182="",$E182=""),"",IF(AND(IF(OR($C182&lt;&gt;"",$E182&lt;&gt;""),AND($A182&lt;&gt;"",$C182&lt;&gt;"",$E182&lt;&gt;""),TRUE()),OR($C182&lt;&gt;"",$E182&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A182)&gt;0,"Заполнены","Не заполнены"),IF(AND($A182&lt;&gt;"",$C182&lt;&gt;"",$E182&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36973,7 +37025,7 @@
       </c>
       <c r="D183" s="60" t="n"/>
       <c r="E183" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" s="62">
         <f>IF(AND($A183="",$C183="",$E183=""),"",IF(AND(IF(OR($C183&lt;&gt;"",$E183&lt;&gt;""),AND($A183&lt;&gt;"",$C183&lt;&gt;"",$E183&lt;&gt;""),TRUE()),OR($C183&lt;&gt;"",$E183&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A183)&gt;0,"Заполнены","Не заполнены"),IF(AND($A183&lt;&gt;"",$C183&lt;&gt;"",$E183&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37061,7 +37113,7 @@
       </c>
       <c r="D185" s="60" t="n"/>
       <c r="E185" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" s="62">
         <f>IF(AND($A185="",$C185="",$E185=""),"",IF(AND(IF(OR($C185&lt;&gt;"",$E185&lt;&gt;""),AND($A185&lt;&gt;"",$C185&lt;&gt;"",$E185&lt;&gt;""),TRUE()),OR($C185&lt;&gt;"",$E185&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A185)&gt;0,"Заполнены","Не заполнены"),IF(AND($A185&lt;&gt;"",$C185&lt;&gt;"",$E185&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37107,7 +37159,7 @@
       </c>
       <c r="D186" s="60" t="n"/>
       <c r="E186" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="62">
         <f>IF(AND($A186="",$C186="",$E186=""),"",IF(AND(IF(OR($C186&lt;&gt;"",$E186&lt;&gt;""),AND($A186&lt;&gt;"",$C186&lt;&gt;"",$E186&lt;&gt;""),TRUE()),OR($C186&lt;&gt;"",$E186&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A186)&gt;0,"Заполнены","Не заполнены"),IF(AND($A186&lt;&gt;"",$C186&lt;&gt;"",$E186&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37153,7 +37205,7 @@
       </c>
       <c r="D187" s="60" t="n"/>
       <c r="E187" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F187" s="62">
         <f>IF(AND($A187="",$C187="",$E187=""),"",IF(AND(IF(OR($C187&lt;&gt;"",$E187&lt;&gt;""),AND($A187&lt;&gt;"",$C187&lt;&gt;"",$E187&lt;&gt;""),TRUE()),OR($C187&lt;&gt;"",$E187&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A187)&gt;0,"Заполнены","Не заполнены"),IF(AND($A187&lt;&gt;"",$C187&lt;&gt;"",$E187&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37199,7 +37251,7 @@
       </c>
       <c r="D188" s="60" t="n"/>
       <c r="E188" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" s="62">
         <f>IF(AND($A188="",$C188="",$E188=""),"",IF(AND(IF(OR($C188&lt;&gt;"",$E188&lt;&gt;""),AND($A188&lt;&gt;"",$C188&lt;&gt;"",$E188&lt;&gt;""),TRUE()),OR($C188&lt;&gt;"",$E188&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A188)&gt;0,"Заполнены","Не заполнены"),IF(AND($A188&lt;&gt;"",$C188&lt;&gt;"",$E188&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37245,7 +37297,7 @@
       </c>
       <c r="D189" s="60" t="n"/>
       <c r="E189" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" s="62">
         <f>IF(AND($A189="",$C189="",$E189=""),"",IF(AND(IF(OR($C189&lt;&gt;"",$E189&lt;&gt;""),AND($A189&lt;&gt;"",$C189&lt;&gt;"",$E189&lt;&gt;""),TRUE()),OR($C189&lt;&gt;"",$E189&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A189)&gt;0,"Заполнены","Не заполнены"),IF(AND($A189&lt;&gt;"",$C189&lt;&gt;"",$E189&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37337,7 +37389,7 @@
       </c>
       <c r="D191" s="60" t="n"/>
       <c r="E191" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="62">
         <f>IF(AND($A191="",$C191="",$E191=""),"",IF(AND(IF(OR($C191&lt;&gt;"",$E191&lt;&gt;""),AND($A191&lt;&gt;"",$C191&lt;&gt;"",$E191&lt;&gt;""),TRUE()),OR($C191&lt;&gt;"",$E191&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A191)&gt;0,"Заполнены","Не заполнены"),IF(AND($A191&lt;&gt;"",$C191&lt;&gt;"",$E191&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37383,7 +37435,7 @@
       </c>
       <c r="D192" s="60" t="n"/>
       <c r="E192" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F192" s="62">
         <f>IF(AND($A192="",$C192="",$E192=""),"",IF(AND(IF(OR($C192&lt;&gt;"",$E192&lt;&gt;""),AND($A192&lt;&gt;"",$C192&lt;&gt;"",$E192&lt;&gt;""),TRUE()),OR($C192&lt;&gt;"",$E192&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A192)&gt;0,"Заполнены","Не заполнены"),IF(AND($A192&lt;&gt;"",$C192&lt;&gt;"",$E192&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37429,7 +37481,7 @@
       </c>
       <c r="D193" s="60" t="n"/>
       <c r="E193" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F193" s="62">
         <f>IF(AND($A193="",$C193="",$E193=""),"",IF(AND(IF(OR($C193&lt;&gt;"",$E193&lt;&gt;""),AND($A193&lt;&gt;"",$C193&lt;&gt;"",$E193&lt;&gt;""),TRUE()),OR($C193&lt;&gt;"",$E193&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A193)&gt;0,"Заполнены","Не заполнены"),IF(AND($A193&lt;&gt;"",$C193&lt;&gt;"",$E193&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37475,7 +37527,7 @@
       </c>
       <c r="D194" s="60" t="n"/>
       <c r="E194" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F194" s="62">
         <f>IF(AND($A194="",$C194="",$E194=""),"",IF(AND(IF(OR($C194&lt;&gt;"",$E194&lt;&gt;""),AND($A194&lt;&gt;"",$C194&lt;&gt;"",$E194&lt;&gt;""),TRUE()),OR($C194&lt;&gt;"",$E194&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A194)&gt;0,"Заполнены","Не заполнены"),IF(AND($A194&lt;&gt;"",$C194&lt;&gt;"",$E194&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37521,7 +37573,7 @@
       </c>
       <c r="D195" s="60" t="n"/>
       <c r="E195" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F195" s="62">
         <f>IF(AND($A195="",$C195="",$E195=""),"",IF(AND(IF(OR($C195&lt;&gt;"",$E195&lt;&gt;""),AND($A195&lt;&gt;"",$C195&lt;&gt;"",$E195&lt;&gt;""),TRUE()),OR($C195&lt;&gt;"",$E195&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A195)&gt;0,"Заполнены","Не заполнены"),IF(AND($A195&lt;&gt;"",$C195&lt;&gt;"",$E195&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37555,7 +37607,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B196" s="59" t="n"/>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t>0000211967</t>
+        </is>
+      </c>
       <c r="C196" s="60" t="inlineStr">
         <is>
           <t>ПВГ 1214-01</t>
@@ -37563,7 +37619,7 @@
       </c>
       <c r="D196" s="60" t="n"/>
       <c r="E196" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F196" s="62">
         <f>IF(AND($A196="",$C196="",$E196=""),"",IF(AND(IF(OR($C196&lt;&gt;"",$E196&lt;&gt;""),AND($A196&lt;&gt;"",$C196&lt;&gt;"",$E196&lt;&gt;""),TRUE()),OR($C196&lt;&gt;"",$E196&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A196)&gt;0,"Заполнены","Не заполнены"),IF(AND($A196&lt;&gt;"",$C196&lt;&gt;"",$E196&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37609,7 +37665,7 @@
       </c>
       <c r="D197" s="60" t="n"/>
       <c r="E197" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F197" s="62">
         <f>IF(AND($A197="",$C197="",$E197=""),"",IF(AND(IF(OR($C197&lt;&gt;"",$E197&lt;&gt;""),AND($A197&lt;&gt;"",$C197&lt;&gt;"",$E197&lt;&gt;""),TRUE()),OR($C197&lt;&gt;"",$E197&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A197)&gt;0,"Заполнены","Не заполнены"),IF(AND($A197&lt;&gt;"",$C197&lt;&gt;"",$E197&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37655,7 +37711,7 @@
       </c>
       <c r="D198" s="60" t="n"/>
       <c r="E198" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" s="62">
         <f>IF(AND($A198="",$C198="",$E198=""),"",IF(AND(IF(OR($C198&lt;&gt;"",$E198&lt;&gt;""),AND($A198&lt;&gt;"",$C198&lt;&gt;"",$E198&lt;&gt;""),TRUE()),OR($C198&lt;&gt;"",$E198&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A198)&gt;0,"Заполнены","Не заполнены"),IF(AND($A198&lt;&gt;"",$C198&lt;&gt;"",$E198&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37701,7 +37757,7 @@
       </c>
       <c r="D199" s="60" t="n"/>
       <c r="E199" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" s="62">
         <f>IF(AND($A199="",$C199="",$E199=""),"",IF(AND(IF(OR($C199&lt;&gt;"",$E199&lt;&gt;""),AND($A199&lt;&gt;"",$C199&lt;&gt;"",$E199&lt;&gt;""),TRUE()),OR($C199&lt;&gt;"",$E199&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A199)&gt;0,"Заполнены","Не заполнены"),IF(AND($A199&lt;&gt;"",$C199&lt;&gt;"",$E199&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37747,7 +37803,7 @@
       </c>
       <c r="D200" s="60" t="n"/>
       <c r="E200" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" s="62">
         <f>IF(AND($A200="",$C200="",$E200=""),"",IF(AND(IF(OR($C200&lt;&gt;"",$E200&lt;&gt;""),AND($A200&lt;&gt;"",$C200&lt;&gt;"",$E200&lt;&gt;""),TRUE()),OR($C200&lt;&gt;"",$E200&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A200)&gt;0,"Заполнены","Не заполнены"),IF(AND($A200&lt;&gt;"",$C200&lt;&gt;"",$E200&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37839,7 +37895,7 @@
       </c>
       <c r="D202" s="60" t="n"/>
       <c r="E202" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="62">
         <f>IF(AND($A202="",$C202="",$E202=""),"",IF(AND(IF(OR($C202&lt;&gt;"",$E202&lt;&gt;""),AND($A202&lt;&gt;"",$C202&lt;&gt;"",$E202&lt;&gt;""),TRUE()),OR($C202&lt;&gt;"",$E202&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A202)&gt;0,"Заполнены","Не заполнены"),IF(AND($A202&lt;&gt;"",$C202&lt;&gt;"",$E202&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37977,7 +38033,7 @@
       </c>
       <c r="D205" s="60" t="n"/>
       <c r="E205" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" s="62">
         <f>IF(AND($A205="",$C205="",$E205=""),"",IF(AND(IF(OR($C205&lt;&gt;"",$E205&lt;&gt;""),AND($A205&lt;&gt;"",$C205&lt;&gt;"",$E205&lt;&gt;""),TRUE()),OR($C205&lt;&gt;"",$E205&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A205)&gt;0,"Заполнены","Не заполнены"),IF(AND($A205&lt;&gt;"",$C205&lt;&gt;"",$E205&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38023,7 +38079,7 @@
       </c>
       <c r="D206" s="60" t="n"/>
       <c r="E206" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="62">
         <f>IF(AND($A206="",$C206="",$E206=""),"",IF(AND(IF(OR($C206&lt;&gt;"",$E206&lt;&gt;""),AND($A206&lt;&gt;"",$C206&lt;&gt;"",$E206&lt;&gt;""),TRUE()),OR($C206&lt;&gt;"",$E206&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A206)&gt;0,"Заполнены","Не заполнены"),IF(AND($A206&lt;&gt;"",$C206&lt;&gt;"",$E206&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38069,7 +38125,7 @@
       </c>
       <c r="D207" s="60" t="n"/>
       <c r="E207" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F207" s="62">
         <f>IF(AND($A207="",$C207="",$E207=""),"",IF(AND(IF(OR($C207&lt;&gt;"",$E207&lt;&gt;""),AND($A207&lt;&gt;"",$C207&lt;&gt;"",$E207&lt;&gt;""),TRUE()),OR($C207&lt;&gt;"",$E207&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A207)&gt;0,"Заполнены","Не заполнены"),IF(AND($A207&lt;&gt;"",$C207&lt;&gt;"",$E207&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38115,7 +38171,7 @@
       </c>
       <c r="D208" s="60" t="n"/>
       <c r="E208" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" s="62">
         <f>IF(AND($A208="",$C208="",$E208=""),"",IF(AND(IF(OR($C208&lt;&gt;"",$E208&lt;&gt;""),AND($A208&lt;&gt;"",$C208&lt;&gt;"",$E208&lt;&gt;""),TRUE()),OR($C208&lt;&gt;"",$E208&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A208)&gt;0,"Заполнены","Не заполнены"),IF(AND($A208&lt;&gt;"",$C208&lt;&gt;"",$E208&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38161,7 +38217,7 @@
       </c>
       <c r="D209" s="60" t="n"/>
       <c r="E209" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" s="62">
         <f>IF(AND($A209="",$C209="",$E209=""),"",IF(AND(IF(OR($C209&lt;&gt;"",$E209&lt;&gt;""),AND($A209&lt;&gt;"",$C209&lt;&gt;"",$E209&lt;&gt;""),TRUE()),OR($C209&lt;&gt;"",$E209&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A209)&gt;0,"Заполнены","Не заполнены"),IF(AND($A209&lt;&gt;"",$C209&lt;&gt;"",$E209&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38207,7 +38263,7 @@
       </c>
       <c r="D210" s="60" t="n"/>
       <c r="E210" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" s="62">
         <f>IF(AND($A210="",$C210="",$E210=""),"",IF(AND(IF(OR($C210&lt;&gt;"",$E210&lt;&gt;""),AND($A210&lt;&gt;"",$C210&lt;&gt;"",$E210&lt;&gt;""),TRUE()),OR($C210&lt;&gt;"",$E210&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A210)&gt;0,"Заполнены","Не заполнены"),IF(AND($A210&lt;&gt;"",$C210&lt;&gt;"",$E210&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38253,7 +38309,7 @@
       </c>
       <c r="D211" s="60" t="n"/>
       <c r="E211" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" s="62">
         <f>IF(AND($A211="",$C211="",$E211=""),"",IF(AND(IF(OR($C211&lt;&gt;"",$E211&lt;&gt;""),AND($A211&lt;&gt;"",$C211&lt;&gt;"",$E211&lt;&gt;""),TRUE()),OR($C211&lt;&gt;"",$E211&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A211)&gt;0,"Заполнены","Не заполнены"),IF(AND($A211&lt;&gt;"",$C211&lt;&gt;"",$E211&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38287,7 +38343,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B212" s="59" t="n"/>
+      <c r="B212" s="59" t="inlineStr">
+        <is>
+          <t>0000385127</t>
+        </is>
+      </c>
       <c r="C212" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2232-01 К47</t>
@@ -38295,7 +38355,7 @@
       </c>
       <c r="D212" s="60" t="n"/>
       <c r="E212" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F212" s="62">
         <f>IF(AND($A212="",$C212="",$E212=""),"",IF(AND(IF(OR($C212&lt;&gt;"",$E212&lt;&gt;""),AND($A212&lt;&gt;"",$C212&lt;&gt;"",$E212&lt;&gt;""),TRUE()),OR($C212&lt;&gt;"",$E212&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A212)&gt;0,"Заполнены","Не заполнены"),IF(AND($A212&lt;&gt;"",$C212&lt;&gt;"",$E212&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38341,7 +38401,7 @@
       </c>
       <c r="D213" s="60" t="n"/>
       <c r="E213" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="62">
         <f>IF(AND($A213="",$C213="",$E213=""),"",IF(AND(IF(OR($C213&lt;&gt;"",$E213&lt;&gt;""),AND($A213&lt;&gt;"",$C213&lt;&gt;"",$E213&lt;&gt;""),TRUE()),OR($C213&lt;&gt;"",$E213&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A213)&gt;0,"Заполнены","Не заполнены"),IF(AND($A213&lt;&gt;"",$C213&lt;&gt;"",$E213&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38475,7 +38535,7 @@
       </c>
       <c r="D216" s="60" t="n"/>
       <c r="E216" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F216" s="62">
         <f>IF(AND($A216="",$C216="",$E216=""),"",IF(AND(IF(OR($C216&lt;&gt;"",$E216&lt;&gt;""),AND($A216&lt;&gt;"",$C216&lt;&gt;"",$E216&lt;&gt;""),TRUE()),OR($C216&lt;&gt;"",$E216&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A216)&gt;0,"Заполнены","Не заполнены"),IF(AND($A216&lt;&gt;"",$C216&lt;&gt;"",$E216&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38509,7 +38569,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B217" s="59" t="n"/>
+      <c r="B217" s="59" t="inlineStr">
+        <is>
+          <t>0000387585</t>
+        </is>
+      </c>
       <c r="C217" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2150-01 К22</t>
@@ -38517,7 +38581,7 @@
       </c>
       <c r="D217" s="60" t="n"/>
       <c r="E217" s="61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F217" s="62">
         <f>IF(AND($A217="",$C217="",$E217=""),"",IF(AND(IF(OR($C217&lt;&gt;"",$E217&lt;&gt;""),AND($A217&lt;&gt;"",$C217&lt;&gt;"",$E217&lt;&gt;""),TRUE()),OR($C217&lt;&gt;"",$E217&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A217)&gt;0,"Заполнены","Не заполнены"),IF(AND($A217&lt;&gt;"",$C217&lt;&gt;"",$E217&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38551,7 +38615,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B218" s="59" t="n"/>
+      <c r="B218" s="59" t="inlineStr">
+        <is>
+          <t>0000379427</t>
+        </is>
+      </c>
       <c r="C218" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2232-01 К43</t>
@@ -38559,7 +38627,7 @@
       </c>
       <c r="D218" s="60" t="n"/>
       <c r="E218" s="61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F218" s="62">
         <f>IF(AND($A218="",$C218="",$E218=""),"",IF(AND(IF(OR($C218&lt;&gt;"",$E218&lt;&gt;""),AND($A218&lt;&gt;"",$C218&lt;&gt;"",$E218&lt;&gt;""),TRUE()),OR($C218&lt;&gt;"",$E218&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A218)&gt;0,"Заполнены","Не заполнены"),IF(AND($A218&lt;&gt;"",$C218&lt;&gt;"",$E218&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38689,7 +38757,7 @@
       </c>
       <c r="D221" s="60" t="n"/>
       <c r="E221" s="61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" s="62">
         <f>IF(AND($A221="",$C221="",$E221=""),"",IF(AND(IF(OR($C221&lt;&gt;"",$E221&lt;&gt;""),AND($A221&lt;&gt;"",$C221&lt;&gt;"",$E221&lt;&gt;""),TRUE()),OR($C221&lt;&gt;"",$E221&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A221)&gt;0,"Заполнены","Не заполнены"),IF(AND($A221&lt;&gt;"",$C221&lt;&gt;"",$E221&lt;&gt;""),"Заполнены","Не заполнены")))</f>

--- a/ozon.xlsx
+++ b/ozon.xlsx
@@ -28947,7 +28947,7 @@
       </c>
       <c r="D2" s="60" t="n"/>
       <c r="E2" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="62">
         <f>IF(AND($A2="",$C2="",$E2=""),"",IF(AND(IF(OR($C2&lt;&gt;"",$E2&lt;&gt;""),AND($A2&lt;&gt;"",$C2&lt;&gt;"",$E2&lt;&gt;""),TRUE()),OR($C2&lt;&gt;"",$E2&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A2)&gt;0,"Заполнены","Не заполнены"),IF(AND($A2&lt;&gt;"",$C2&lt;&gt;"",$E2&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29039,7 +29039,7 @@
       </c>
       <c r="D4" s="60" t="n"/>
       <c r="E4" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="62">
         <f>IF(AND($A4="",$C4="",$E4=""),"",IF(AND(IF(OR($C4&lt;&gt;"",$E4&lt;&gt;""),AND($A4&lt;&gt;"",$C4&lt;&gt;"",$E4&lt;&gt;""),TRUE()),OR($C4&lt;&gt;"",$E4&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A4)&gt;0,"Заполнены","Не заполнены"),IF(AND($A4&lt;&gt;"",$C4&lt;&gt;"",$E4&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29085,7 +29085,7 @@
       </c>
       <c r="D5" s="60" t="n"/>
       <c r="E5" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="62">
         <f>IF(AND($A5="",$C5="",$E5=""),"",IF(AND(IF(OR($C5&lt;&gt;"",$E5&lt;&gt;""),AND($A5&lt;&gt;"",$C5&lt;&gt;"",$E5&lt;&gt;""),TRUE()),OR($C5&lt;&gt;"",$E5&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A5)&gt;0,"Заполнены","Не заполнены"),IF(AND($A5&lt;&gt;"",$C5&lt;&gt;"",$E5&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="D6" s="60" t="n"/>
       <c r="E6" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="62">
         <f>IF(AND($A6="",$C6="",$E6=""),"",IF(AND(IF(OR($C6&lt;&gt;"",$E6&lt;&gt;""),AND($A6&lt;&gt;"",$C6&lt;&gt;"",$E6&lt;&gt;""),TRUE()),OR($C6&lt;&gt;"",$E6&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A6)&gt;0,"Заполнены","Не заполнены"),IF(AND($A6&lt;&gt;"",$C6&lt;&gt;"",$E6&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="D7" s="60" t="n"/>
       <c r="E7" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="62">
         <f>IF(AND($A7="",$C7="",$E7=""),"",IF(AND(IF(OR($C7&lt;&gt;"",$E7&lt;&gt;""),AND($A7&lt;&gt;"",$C7&lt;&gt;"",$E7&lt;&gt;""),TRUE()),OR($C7&lt;&gt;"",$E7&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A7)&gt;0,"Заполнены","Не заполнены"),IF(AND($A7&lt;&gt;"",$C7&lt;&gt;"",$E7&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29223,7 +29223,7 @@
       </c>
       <c r="D8" s="60" t="n"/>
       <c r="E8" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="62">
         <f>IF(AND($A8="",$C8="",$E8=""),"",IF(AND(IF(OR($C8&lt;&gt;"",$E8&lt;&gt;""),AND($A8&lt;&gt;"",$C8&lt;&gt;"",$E8&lt;&gt;""),TRUE()),OR($C8&lt;&gt;"",$E8&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A8)&gt;0,"Заполнены","Не заполнены"),IF(AND($A8&lt;&gt;"",$C8&lt;&gt;"",$E8&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="D9" s="60" t="n"/>
       <c r="E9" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="62">
         <f>IF(AND($A9="",$C9="",$E9=""),"",IF(AND(IF(OR($C9&lt;&gt;"",$E9&lt;&gt;""),AND($A9&lt;&gt;"",$C9&lt;&gt;"",$E9&lt;&gt;""),TRUE()),OR($C9&lt;&gt;"",$E9&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A9)&gt;0,"Заполнены","Не заполнены"),IF(AND($A9&lt;&gt;"",$C9&lt;&gt;"",$E9&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="D10" s="60" t="n"/>
       <c r="E10" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="62">
         <f>IF(AND($A10="",$C10="",$E10=""),"",IF(AND(IF(OR($C10&lt;&gt;"",$E10&lt;&gt;""),AND($A10&lt;&gt;"",$C10&lt;&gt;"",$E10&lt;&gt;""),TRUE()),OR($C10&lt;&gt;"",$E10&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A10)&gt;0,"Заполнены","Не заполнены"),IF(AND($A10&lt;&gt;"",$C10&lt;&gt;"",$E10&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="D11" s="60" t="n"/>
       <c r="E11" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="62">
         <f>IF(AND($A11="",$C11="",$E11=""),"",IF(AND(IF(OR($C11&lt;&gt;"",$E11&lt;&gt;""),AND($A11&lt;&gt;"",$C11&lt;&gt;"",$E11&lt;&gt;""),TRUE()),OR($C11&lt;&gt;"",$E11&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A11)&gt;0,"Заполнены","Не заполнены"),IF(AND($A11&lt;&gt;"",$C11&lt;&gt;"",$E11&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29453,7 +29453,7 @@
       </c>
       <c r="D13" s="60" t="n"/>
       <c r="E13" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="62">
         <f>IF(AND($A13="",$C13="",$E13=""),"",IF(AND(IF(OR($C13&lt;&gt;"",$E13&lt;&gt;""),AND($A13&lt;&gt;"",$C13&lt;&gt;"",$E13&lt;&gt;""),TRUE()),OR($C13&lt;&gt;"",$E13&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A13)&gt;0,"Заполнены","Не заполнены"),IF(AND($A13&lt;&gt;"",$C13&lt;&gt;"",$E13&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29499,7 +29499,7 @@
       </c>
       <c r="D14" s="60" t="n"/>
       <c r="E14" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="62">
         <f>IF(AND($A14="",$C14="",$E14=""),"",IF(AND(IF(OR($C14&lt;&gt;"",$E14&lt;&gt;""),AND($A14&lt;&gt;"",$C14&lt;&gt;"",$E14&lt;&gt;""),TRUE()),OR($C14&lt;&gt;"",$E14&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A14)&gt;0,"Заполнены","Не заполнены"),IF(AND($A14&lt;&gt;"",$C14&lt;&gt;"",$E14&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29545,7 +29545,7 @@
       </c>
       <c r="D15" s="60" t="n"/>
       <c r="E15" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="62">
         <f>IF(AND($A15="",$C15="",$E15=""),"",IF(AND(IF(OR($C15&lt;&gt;"",$E15&lt;&gt;""),AND($A15&lt;&gt;"",$C15&lt;&gt;"",$E15&lt;&gt;""),TRUE()),OR($C15&lt;&gt;"",$E15&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A15)&gt;0,"Заполнены","Не заполнены"),IF(AND($A15&lt;&gt;"",$C15&lt;&gt;"",$E15&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29675,7 +29675,7 @@
       </c>
       <c r="D18" s="60" t="n"/>
       <c r="E18" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="62">
         <f>IF(AND($A18="",$C18="",$E18=""),"",IF(AND(IF(OR($C18&lt;&gt;"",$E18&lt;&gt;""),AND($A18&lt;&gt;"",$C18&lt;&gt;"",$E18&lt;&gt;""),TRUE()),OR($C18&lt;&gt;"",$E18&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A18)&gt;0,"Заполнены","Не заполнены"),IF(AND($A18&lt;&gt;"",$C18&lt;&gt;"",$E18&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="D19" s="60" t="n"/>
       <c r="E19" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="62">
         <f>IF(AND($A19="",$C19="",$E19=""),"",IF(AND(IF(OR($C19&lt;&gt;"",$E19&lt;&gt;""),AND($A19&lt;&gt;"",$C19&lt;&gt;"",$E19&lt;&gt;""),TRUE()),OR($C19&lt;&gt;"",$E19&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A19)&gt;0,"Заполнены","Не заполнены"),IF(AND($A19&lt;&gt;"",$C19&lt;&gt;"",$E19&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29767,7 +29767,7 @@
       </c>
       <c r="D20" s="60" t="n"/>
       <c r="E20" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="62">
         <f>IF(AND($A20="",$C20="",$E20=""),"",IF(AND(IF(OR($C20&lt;&gt;"",$E20&lt;&gt;""),AND($A20&lt;&gt;"",$C20&lt;&gt;"",$E20&lt;&gt;""),TRUE()),OR($C20&lt;&gt;"",$E20&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A20)&gt;0,"Заполнены","Не заполнены"),IF(AND($A20&lt;&gt;"",$C20&lt;&gt;"",$E20&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="D21" s="60" t="n"/>
       <c r="E21" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="62">
         <f>IF(AND($A21="",$C21="",$E21=""),"",IF(AND(IF(OR($C21&lt;&gt;"",$E21&lt;&gt;""),AND($A21&lt;&gt;"",$C21&lt;&gt;"",$E21&lt;&gt;""),TRUE()),OR($C21&lt;&gt;"",$E21&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A21)&gt;0,"Заполнены","Не заполнены"),IF(AND($A21&lt;&gt;"",$C21&lt;&gt;"",$E21&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29859,7 +29859,7 @@
       </c>
       <c r="D22" s="60" t="n"/>
       <c r="E22" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="62">
         <f>IF(AND($A22="",$C22="",$E22=""),"",IF(AND(IF(OR($C22&lt;&gt;"",$E22&lt;&gt;""),AND($A22&lt;&gt;"",$C22&lt;&gt;"",$E22&lt;&gt;""),TRUE()),OR($C22&lt;&gt;"",$E22&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A22)&gt;0,"Заполнены","Не заполнены"),IF(AND($A22&lt;&gt;"",$C22&lt;&gt;"",$E22&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29905,7 +29905,7 @@
       </c>
       <c r="D23" s="60" t="n"/>
       <c r="E23" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="62">
         <f>IF(AND($A23="",$C23="",$E23=""),"",IF(AND(IF(OR($C23&lt;&gt;"",$E23&lt;&gt;""),AND($A23&lt;&gt;"",$C23&lt;&gt;"",$E23&lt;&gt;""),TRUE()),OR($C23&lt;&gt;"",$E23&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A23)&gt;0,"Заполнены","Не заполнены"),IF(AND($A23&lt;&gt;"",$C23&lt;&gt;"",$E23&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29951,7 +29951,7 @@
       </c>
       <c r="D24" s="60" t="n"/>
       <c r="E24" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="62">
         <f>IF(AND($A24="",$C24="",$E24=""),"",IF(AND(IF(OR($C24&lt;&gt;"",$E24&lt;&gt;""),AND($A24&lt;&gt;"",$C24&lt;&gt;"",$E24&lt;&gt;""),TRUE()),OR($C24&lt;&gt;"",$E24&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A24)&gt;0,"Заполнены","Не заполнены"),IF(AND($A24&lt;&gt;"",$C24&lt;&gt;"",$E24&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -29997,7 +29997,7 @@
       </c>
       <c r="D25" s="60" t="n"/>
       <c r="E25" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="62">
         <f>IF(AND($A25="",$C25="",$E25=""),"",IF(AND(IF(OR($C25&lt;&gt;"",$E25&lt;&gt;""),AND($A25&lt;&gt;"",$C25&lt;&gt;"",$E25&lt;&gt;""),TRUE()),OR($C25&lt;&gt;"",$E25&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A25)&gt;0,"Заполнены","Не заполнены"),IF(AND($A25&lt;&gt;"",$C25&lt;&gt;"",$E25&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -30715,7 +30715,7 @@
       </c>
       <c r="D42" s="60" t="n"/>
       <c r="E42" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="62">
         <f>IF(AND($A42="",$C42="",$E42=""),"",IF(AND(IF(OR($C42&lt;&gt;"",$E42&lt;&gt;""),AND($A42&lt;&gt;"",$C42&lt;&gt;"",$E42&lt;&gt;""),TRUE()),OR($C42&lt;&gt;"",$E42&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A42)&gt;0,"Заполнены","Не заполнены"),IF(AND($A42&lt;&gt;"",$C42&lt;&gt;"",$E42&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31139,7 +31139,7 @@
       </c>
       <c r="D52" s="60" t="n"/>
       <c r="E52" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="62">
         <f>IF(AND($A52="",$C52="",$E52=""),"",IF(AND(IF(OR($C52&lt;&gt;"",$E52&lt;&gt;""),AND($A52&lt;&gt;"",$C52&lt;&gt;"",$E52&lt;&gt;""),TRUE()),OR($C52&lt;&gt;"",$E52&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A52)&gt;0,"Заполнены","Не заполнены"),IF(AND($A52&lt;&gt;"",$C52&lt;&gt;"",$E52&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31185,7 +31185,7 @@
       </c>
       <c r="D53" s="60" t="n"/>
       <c r="E53" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="62">
         <f>IF(AND($A53="",$C53="",$E53=""),"",IF(AND(IF(OR($C53&lt;&gt;"",$E53&lt;&gt;""),AND($A53&lt;&gt;"",$C53&lt;&gt;"",$E53&lt;&gt;""),TRUE()),OR($C53&lt;&gt;"",$E53&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A53)&gt;0,"Заполнены","Не заполнены"),IF(AND($A53&lt;&gt;"",$C53&lt;&gt;"",$E53&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31231,7 +31231,7 @@
       </c>
       <c r="D54" s="60" t="n"/>
       <c r="E54" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="62">
         <f>IF(AND($A54="",$C54="",$E54=""),"",IF(AND(IF(OR($C54&lt;&gt;"",$E54&lt;&gt;""),AND($A54&lt;&gt;"",$C54&lt;&gt;"",$E54&lt;&gt;""),TRUE()),OR($C54&lt;&gt;"",$E54&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A54)&gt;0,"Заполнены","Не заполнены"),IF(AND($A54&lt;&gt;"",$C54&lt;&gt;"",$E54&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31277,7 +31277,7 @@
       </c>
       <c r="D55" s="60" t="n"/>
       <c r="E55" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="62">
         <f>IF(AND($A55="",$C55="",$E55=""),"",IF(AND(IF(OR($C55&lt;&gt;"",$E55&lt;&gt;""),AND($A55&lt;&gt;"",$C55&lt;&gt;"",$E55&lt;&gt;""),TRUE()),OR($C55&lt;&gt;"",$E55&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A55)&gt;0,"Заполнены","Не заполнены"),IF(AND($A55&lt;&gt;"",$C55&lt;&gt;"",$E55&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="D56" s="60" t="n"/>
       <c r="E56" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="62">
         <f>IF(AND($A56="",$C56="",$E56=""),"",IF(AND(IF(OR($C56&lt;&gt;"",$E56&lt;&gt;""),AND($A56&lt;&gt;"",$C56&lt;&gt;"",$E56&lt;&gt;""),TRUE()),OR($C56&lt;&gt;"",$E56&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A56)&gt;0,"Заполнены","Не заполнены"),IF(AND($A56&lt;&gt;"",$C56&lt;&gt;"",$E56&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="D57" s="60" t="n"/>
       <c r="E57" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="62">
         <f>IF(AND($A57="",$C57="",$E57=""),"",IF(AND(IF(OR($C57&lt;&gt;"",$E57&lt;&gt;""),AND($A57&lt;&gt;"",$C57&lt;&gt;"",$E57&lt;&gt;""),TRUE()),OR($C57&lt;&gt;"",$E57&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A57)&gt;0,"Заполнены","Не заполнены"),IF(AND($A57&lt;&gt;"",$C57&lt;&gt;"",$E57&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31415,7 +31415,7 @@
       </c>
       <c r="D58" s="60" t="n"/>
       <c r="E58" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58" s="62">
         <f>IF(AND($A58="",$C58="",$E58=""),"",IF(AND(IF(OR($C58&lt;&gt;"",$E58&lt;&gt;""),AND($A58&lt;&gt;"",$C58&lt;&gt;"",$E58&lt;&gt;""),TRUE()),OR($C58&lt;&gt;"",$E58&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A58)&gt;0,"Заполнены","Не заполнены"),IF(AND($A58&lt;&gt;"",$C58&lt;&gt;"",$E58&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31461,7 +31461,7 @@
       </c>
       <c r="D59" s="60" t="n"/>
       <c r="E59" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59" s="62">
         <f>IF(AND($A59="",$C59="",$E59=""),"",IF(AND(IF(OR($C59&lt;&gt;"",$E59&lt;&gt;""),AND($A59&lt;&gt;"",$C59&lt;&gt;"",$E59&lt;&gt;""),TRUE()),OR($C59&lt;&gt;"",$E59&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A59)&gt;0,"Заполнены","Не заполнены"),IF(AND($A59&lt;&gt;"",$C59&lt;&gt;"",$E59&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31595,7 +31595,7 @@
       </c>
       <c r="D62" s="60" t="n"/>
       <c r="E62" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" s="62">
         <f>IF(AND($A62="",$C62="",$E62=""),"",IF(AND(IF(OR($C62&lt;&gt;"",$E62&lt;&gt;""),AND($A62&lt;&gt;"",$C62&lt;&gt;"",$E62&lt;&gt;""),TRUE()),OR($C62&lt;&gt;"",$E62&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A62)&gt;0,"Заполнены","Не заполнены"),IF(AND($A62&lt;&gt;"",$C62&lt;&gt;"",$E62&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31725,7 +31725,7 @@
       </c>
       <c r="D65" s="60" t="n"/>
       <c r="E65" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F65" s="62">
         <f>IF(AND($A65="",$C65="",$E65=""),"",IF(AND(IF(OR($C65&lt;&gt;"",$E65&lt;&gt;""),AND($A65&lt;&gt;"",$C65&lt;&gt;"",$E65&lt;&gt;""),TRUE()),OR($C65&lt;&gt;"",$E65&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A65)&gt;0,"Заполнены","Не заполнены"),IF(AND($A65&lt;&gt;"",$C65&lt;&gt;"",$E65&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="D66" s="60" t="n"/>
       <c r="E66" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="62">
         <f>IF(AND($A66="",$C66="",$E66=""),"",IF(AND(IF(OR($C66&lt;&gt;"",$E66&lt;&gt;""),AND($A66&lt;&gt;"",$C66&lt;&gt;"",$E66&lt;&gt;""),TRUE()),OR($C66&lt;&gt;"",$E66&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A66)&gt;0,"Заполнены","Не заполнены"),IF(AND($A66&lt;&gt;"",$C66&lt;&gt;"",$E66&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="D67" s="60" t="n"/>
       <c r="E67" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="62">
         <f>IF(AND($A67="",$C67="",$E67=""),"",IF(AND(IF(OR($C67&lt;&gt;"",$E67&lt;&gt;""),AND($A67&lt;&gt;"",$C67&lt;&gt;"",$E67&lt;&gt;""),TRUE()),OR($C67&lt;&gt;"",$E67&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A67)&gt;0,"Заполнены","Не заполнены"),IF(AND($A67&lt;&gt;"",$C67&lt;&gt;"",$E67&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31863,7 +31863,7 @@
       </c>
       <c r="D68" s="60" t="n"/>
       <c r="E68" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" s="62">
         <f>IF(AND($A68="",$C68="",$E68=""),"",IF(AND(IF(OR($C68&lt;&gt;"",$E68&lt;&gt;""),AND($A68&lt;&gt;"",$C68&lt;&gt;"",$E68&lt;&gt;""),TRUE()),OR($C68&lt;&gt;"",$E68&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A68)&gt;0,"Заполнены","Не заполнены"),IF(AND($A68&lt;&gt;"",$C68&lt;&gt;"",$E68&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31909,7 +31909,7 @@
       </c>
       <c r="D69" s="60" t="n"/>
       <c r="E69" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F69" s="62">
         <f>IF(AND($A69="",$C69="",$E69=""),"",IF(AND(IF(OR($C69&lt;&gt;"",$E69&lt;&gt;""),AND($A69&lt;&gt;"",$C69&lt;&gt;"",$E69&lt;&gt;""),TRUE()),OR($C69&lt;&gt;"",$E69&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A69)&gt;0,"Заполнены","Не заполнены"),IF(AND($A69&lt;&gt;"",$C69&lt;&gt;"",$E69&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="D70" s="60" t="n"/>
       <c r="E70" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="62">
         <f>IF(AND($A70="",$C70="",$E70=""),"",IF(AND(IF(OR($C70&lt;&gt;"",$E70&lt;&gt;""),AND($A70&lt;&gt;"",$C70&lt;&gt;"",$E70&lt;&gt;""),TRUE()),OR($C70&lt;&gt;"",$E70&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A70)&gt;0,"Заполнены","Не заполнены"),IF(AND($A70&lt;&gt;"",$C70&lt;&gt;"",$E70&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32001,7 +32001,7 @@
       </c>
       <c r="D71" s="60" t="n"/>
       <c r="E71" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" s="62">
         <f>IF(AND($A71="",$C71="",$E71=""),"",IF(AND(IF(OR($C71&lt;&gt;"",$E71&lt;&gt;""),AND($A71&lt;&gt;"",$C71&lt;&gt;"",$E71&lt;&gt;""),TRUE()),OR($C71&lt;&gt;"",$E71&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A71)&gt;0,"Заполнены","Не заполнены"),IF(AND($A71&lt;&gt;"",$C71&lt;&gt;"",$E71&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32047,7 +32047,7 @@
       </c>
       <c r="D72" s="60" t="n"/>
       <c r="E72" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" s="62">
         <f>IF(AND($A72="",$C72="",$E72=""),"",IF(AND(IF(OR($C72&lt;&gt;"",$E72&lt;&gt;""),AND($A72&lt;&gt;"",$C72&lt;&gt;"",$E72&lt;&gt;""),TRUE()),OR($C72&lt;&gt;"",$E72&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A72)&gt;0,"Заполнены","Не заполнены"),IF(AND($A72&lt;&gt;"",$C72&lt;&gt;"",$E72&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32093,7 +32093,7 @@
       </c>
       <c r="D73" s="60" t="n"/>
       <c r="E73" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="62">
         <f>IF(AND($A73="",$C73="",$E73=""),"",IF(AND(IF(OR($C73&lt;&gt;"",$E73&lt;&gt;""),AND($A73&lt;&gt;"",$C73&lt;&gt;"",$E73&lt;&gt;""),TRUE()),OR($C73&lt;&gt;"",$E73&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A73)&gt;0,"Заполнены","Не заполнены"),IF(AND($A73&lt;&gt;"",$C73&lt;&gt;"",$E73&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32139,7 +32139,7 @@
       </c>
       <c r="D74" s="60" t="n"/>
       <c r="E74" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" s="62">
         <f>IF(AND($A74="",$C74="",$E74=""),"",IF(AND(IF(OR($C74&lt;&gt;"",$E74&lt;&gt;""),AND($A74&lt;&gt;"",$C74&lt;&gt;"",$E74&lt;&gt;""),TRUE()),OR($C74&lt;&gt;"",$E74&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A74)&gt;0,"Заполнены","Не заполнены"),IF(AND($A74&lt;&gt;"",$C74&lt;&gt;"",$E74&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32185,7 +32185,7 @@
       </c>
       <c r="D75" s="60" t="n"/>
       <c r="E75" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75" s="62">
         <f>IF(AND($A75="",$C75="",$E75=""),"",IF(AND(IF(OR($C75&lt;&gt;"",$E75&lt;&gt;""),AND($A75&lt;&gt;"",$C75&lt;&gt;"",$E75&lt;&gt;""),TRUE()),OR($C75&lt;&gt;"",$E75&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A75)&gt;0,"Заполнены","Не заполнены"),IF(AND($A75&lt;&gt;"",$C75&lt;&gt;"",$E75&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="D81" s="60" t="n"/>
       <c r="E81" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F81" s="62">
         <f>IF(AND($A81="",$C81="",$E81=""),"",IF(AND(IF(OR($C81&lt;&gt;"",$E81&lt;&gt;""),AND($A81&lt;&gt;"",$C81&lt;&gt;"",$E81&lt;&gt;""),TRUE()),OR($C81&lt;&gt;"",$E81&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A81)&gt;0,"Заполнены","Не заполнены"),IF(AND($A81&lt;&gt;"",$C81&lt;&gt;"",$E81&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="D83" s="60" t="n"/>
       <c r="E83" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="62">
         <f>IF(AND($A83="",$C83="",$E83=""),"",IF(AND(IF(OR($C83&lt;&gt;"",$E83&lt;&gt;""),AND($A83&lt;&gt;"",$C83&lt;&gt;"",$E83&lt;&gt;""),TRUE()),OR($C83&lt;&gt;"",$E83&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A83)&gt;0,"Заполнены","Не заполнены"),IF(AND($A83&lt;&gt;"",$C83&lt;&gt;"",$E83&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32705,7 +32705,7 @@
       </c>
       <c r="D87" s="60" t="n"/>
       <c r="E87" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="62">
         <f>IF(AND($A87="",$C87="",$E87=""),"",IF(AND(IF(OR($C87&lt;&gt;"",$E87&lt;&gt;""),AND($A87&lt;&gt;"",$C87&lt;&gt;"",$E87&lt;&gt;""),TRUE()),OR($C87&lt;&gt;"",$E87&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A87)&gt;0,"Заполнены","Не заполнены"),IF(AND($A87&lt;&gt;"",$C87&lt;&gt;"",$E87&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32751,7 +32751,7 @@
       </c>
       <c r="D88" s="60" t="n"/>
       <c r="E88" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" s="62">
         <f>IF(AND($A88="",$C88="",$E88=""),"",IF(AND(IF(OR($C88&lt;&gt;"",$E88&lt;&gt;""),AND($A88&lt;&gt;"",$C88&lt;&gt;"",$E88&lt;&gt;""),TRUE()),OR($C88&lt;&gt;"",$E88&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A88)&gt;0,"Заполнены","Не заполнены"),IF(AND($A88&lt;&gt;"",$C88&lt;&gt;"",$E88&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32797,7 +32797,7 @@
       </c>
       <c r="D89" s="60" t="n"/>
       <c r="E89" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" s="62">
         <f>IF(AND($A89="",$C89="",$E89=""),"",IF(AND(IF(OR($C89&lt;&gt;"",$E89&lt;&gt;""),AND($A89&lt;&gt;"",$C89&lt;&gt;"",$E89&lt;&gt;""),TRUE()),OR($C89&lt;&gt;"",$E89&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A89)&gt;0,"Заполнены","Не заполнены"),IF(AND($A89&lt;&gt;"",$C89&lt;&gt;"",$E89&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32843,7 +32843,7 @@
       </c>
       <c r="D90" s="60" t="n"/>
       <c r="E90" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90" s="62">
         <f>IF(AND($A90="",$C90="",$E90=""),"",IF(AND(IF(OR($C90&lt;&gt;"",$E90&lt;&gt;""),AND($A90&lt;&gt;"",$C90&lt;&gt;"",$E90&lt;&gt;""),TRUE()),OR($C90&lt;&gt;"",$E90&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A90)&gt;0,"Заполнены","Не заполнены"),IF(AND($A90&lt;&gt;"",$C90&lt;&gt;"",$E90&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32935,7 +32935,7 @@
       </c>
       <c r="D92" s="60" t="n"/>
       <c r="E92" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="62">
         <f>IF(AND($A92="",$C92="",$E92=""),"",IF(AND(IF(OR($C92&lt;&gt;"",$E92&lt;&gt;""),AND($A92&lt;&gt;"",$C92&lt;&gt;"",$E92&lt;&gt;""),TRUE()),OR($C92&lt;&gt;"",$E92&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A92)&gt;0,"Заполнены","Не заполнены"),IF(AND($A92&lt;&gt;"",$C92&lt;&gt;"",$E92&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -32981,7 +32981,7 @@
       </c>
       <c r="D93" s="60" t="n"/>
       <c r="E93" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="62">
         <f>IF(AND($A93="",$C93="",$E93=""),"",IF(AND(IF(OR($C93&lt;&gt;"",$E93&lt;&gt;""),AND($A93&lt;&gt;"",$C93&lt;&gt;"",$E93&lt;&gt;""),TRUE()),OR($C93&lt;&gt;"",$E93&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A93)&gt;0,"Заполнены","Не заполнены"),IF(AND($A93&lt;&gt;"",$C93&lt;&gt;"",$E93&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33069,7 +33069,7 @@
       </c>
       <c r="D95" s="60" t="n"/>
       <c r="E95" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" s="62">
         <f>IF(AND($A95="",$C95="",$E95=""),"",IF(AND(IF(OR($C95&lt;&gt;"",$E95&lt;&gt;""),AND($A95&lt;&gt;"",$C95&lt;&gt;"",$E95&lt;&gt;""),TRUE()),OR($C95&lt;&gt;"",$E95&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A95)&gt;0,"Заполнены","Не заполнены"),IF(AND($A95&lt;&gt;"",$C95&lt;&gt;"",$E95&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33115,7 +33115,7 @@
       </c>
       <c r="D96" s="60" t="n"/>
       <c r="E96" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="62">
         <f>IF(AND($A96="",$C96="",$E96=""),"",IF(AND(IF(OR($C96&lt;&gt;"",$E96&lt;&gt;""),AND($A96&lt;&gt;"",$C96&lt;&gt;"",$E96&lt;&gt;""),TRUE()),OR($C96&lt;&gt;"",$E96&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A96)&gt;0,"Заполнены","Не заполнены"),IF(AND($A96&lt;&gt;"",$C96&lt;&gt;"",$E96&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33161,7 +33161,7 @@
       </c>
       <c r="D97" s="60" t="n"/>
       <c r="E97" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="62">
         <f>IF(AND($A97="",$C97="",$E97=""),"",IF(AND(IF(OR($C97&lt;&gt;"",$E97&lt;&gt;""),AND($A97&lt;&gt;"",$C97&lt;&gt;"",$E97&lt;&gt;""),TRUE()),OR($C97&lt;&gt;"",$E97&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A97)&gt;0,"Заполнены","Не заполнены"),IF(AND($A97&lt;&gt;"",$C97&lt;&gt;"",$E97&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33253,7 +33253,7 @@
       </c>
       <c r="D99" s="60" t="n"/>
       <c r="E99" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="62">
         <f>IF(AND($A99="",$C99="",$E99=""),"",IF(AND(IF(OR($C99&lt;&gt;"",$E99&lt;&gt;""),AND($A99&lt;&gt;"",$C99&lt;&gt;"",$E99&lt;&gt;""),TRUE()),OR($C99&lt;&gt;"",$E99&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A99)&gt;0,"Заполнены","Не заполнены"),IF(AND($A99&lt;&gt;"",$C99&lt;&gt;"",$E99&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33345,7 +33345,7 @@
       </c>
       <c r="D101" s="60" t="n"/>
       <c r="E101" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="62">
         <f>IF(AND($A101="",$C101="",$E101=""),"",IF(AND(IF(OR($C101&lt;&gt;"",$E101&lt;&gt;""),AND($A101&lt;&gt;"",$C101&lt;&gt;"",$E101&lt;&gt;""),TRUE()),OR($C101&lt;&gt;"",$E101&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A101)&gt;0,"Заполнены","Не заполнены"),IF(AND($A101&lt;&gt;"",$C101&lt;&gt;"",$E101&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33391,7 +33391,7 @@
       </c>
       <c r="D102" s="60" t="n"/>
       <c r="E102" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" s="62">
         <f>IF(AND($A102="",$C102="",$E102=""),"",IF(AND(IF(OR($C102&lt;&gt;"",$E102&lt;&gt;""),AND($A102&lt;&gt;"",$C102&lt;&gt;"",$E102&lt;&gt;""),TRUE()),OR($C102&lt;&gt;"",$E102&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A102)&gt;0,"Заполнены","Не заполнены"),IF(AND($A102&lt;&gt;"",$C102&lt;&gt;"",$E102&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33605,7 +33605,7 @@
       </c>
       <c r="D107" s="60" t="n"/>
       <c r="E107" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="62">
         <f>IF(AND($A107="",$C107="",$E107=""),"",IF(AND(IF(OR($C107&lt;&gt;"",$E107&lt;&gt;""),AND($A107&lt;&gt;"",$C107&lt;&gt;"",$E107&lt;&gt;""),TRUE()),OR($C107&lt;&gt;"",$E107&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A107)&gt;0,"Заполнены","Не заполнены"),IF(AND($A107&lt;&gt;"",$C107&lt;&gt;"",$E107&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33651,7 +33651,7 @@
       </c>
       <c r="D108" s="60" t="n"/>
       <c r="E108" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F108" s="62">
         <f>IF(AND($A108="",$C108="",$E108=""),"",IF(AND(IF(OR($C108&lt;&gt;"",$E108&lt;&gt;""),AND($A108&lt;&gt;"",$C108&lt;&gt;"",$E108&lt;&gt;""),TRUE()),OR($C108&lt;&gt;"",$E108&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A108)&gt;0,"Заполнены","Не заполнены"),IF(AND($A108&lt;&gt;"",$C108&lt;&gt;"",$E108&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="D109" s="60" t="n"/>
       <c r="E109" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" s="62">
         <f>IF(AND($A109="",$C109="",$E109=""),"",IF(AND(IF(OR($C109&lt;&gt;"",$E109&lt;&gt;""),AND($A109&lt;&gt;"",$C109&lt;&gt;"",$E109&lt;&gt;""),TRUE()),OR($C109&lt;&gt;"",$E109&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A109)&gt;0,"Заполнены","Не заполнены"),IF(AND($A109&lt;&gt;"",$C109&lt;&gt;"",$E109&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33743,7 +33743,7 @@
       </c>
       <c r="D110" s="60" t="n"/>
       <c r="E110" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="62">
         <f>IF(AND($A110="",$C110="",$E110=""),"",IF(AND(IF(OR($C110&lt;&gt;"",$E110&lt;&gt;""),AND($A110&lt;&gt;"",$C110&lt;&gt;"",$E110&lt;&gt;""),TRUE()),OR($C110&lt;&gt;"",$E110&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A110)&gt;0,"Заполнены","Не заполнены"),IF(AND($A110&lt;&gt;"",$C110&lt;&gt;"",$E110&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33789,7 +33789,7 @@
       </c>
       <c r="D111" s="60" t="n"/>
       <c r="E111" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="62">
         <f>IF(AND($A111="",$C111="",$E111=""),"",IF(AND(IF(OR($C111&lt;&gt;"",$E111&lt;&gt;""),AND($A111&lt;&gt;"",$C111&lt;&gt;"",$E111&lt;&gt;""),TRUE()),OR($C111&lt;&gt;"",$E111&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A111)&gt;0,"Заполнены","Не заполнены"),IF(AND($A111&lt;&gt;"",$C111&lt;&gt;"",$E111&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33835,7 +33835,7 @@
       </c>
       <c r="D112" s="60" t="n"/>
       <c r="E112" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" s="62">
         <f>IF(AND($A112="",$C112="",$E112=""),"",IF(AND(IF(OR($C112&lt;&gt;"",$E112&lt;&gt;""),AND($A112&lt;&gt;"",$C112&lt;&gt;"",$E112&lt;&gt;""),TRUE()),OR($C112&lt;&gt;"",$E112&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A112)&gt;0,"Заполнены","Не заполнены"),IF(AND($A112&lt;&gt;"",$C112&lt;&gt;"",$E112&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33923,7 +33923,7 @@
       </c>
       <c r="D114" s="60" t="n"/>
       <c r="E114" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="62">
         <f>IF(AND($A114="",$C114="",$E114=""),"",IF(AND(IF(OR($C114&lt;&gt;"",$E114&lt;&gt;""),AND($A114&lt;&gt;"",$C114&lt;&gt;"",$E114&lt;&gt;""),TRUE()),OR($C114&lt;&gt;"",$E114&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A114)&gt;0,"Заполнены","Не заполнены"),IF(AND($A114&lt;&gt;"",$C114&lt;&gt;"",$E114&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -33969,7 +33969,7 @@
       </c>
       <c r="D115" s="60" t="n"/>
       <c r="E115" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F115" s="62">
         <f>IF(AND($A115="",$C115="",$E115=""),"",IF(AND(IF(OR($C115&lt;&gt;"",$E115&lt;&gt;""),AND($A115&lt;&gt;"",$C115&lt;&gt;"",$E115&lt;&gt;""),TRUE()),OR($C115&lt;&gt;"",$E115&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A115)&gt;0,"Заполнены","Не заполнены"),IF(AND($A115&lt;&gt;"",$C115&lt;&gt;"",$E115&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34057,7 +34057,7 @@
       </c>
       <c r="D117" s="60" t="n"/>
       <c r="E117" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" s="62">
         <f>IF(AND($A117="",$C117="",$E117=""),"",IF(AND(IF(OR($C117&lt;&gt;"",$E117&lt;&gt;""),AND($A117&lt;&gt;"",$C117&lt;&gt;"",$E117&lt;&gt;""),TRUE()),OR($C117&lt;&gt;"",$E117&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A117)&gt;0,"Заполнены","Не заполнены"),IF(AND($A117&lt;&gt;"",$C117&lt;&gt;"",$E117&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="D119" s="60" t="n"/>
       <c r="E119" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F119" s="62">
         <f>IF(AND($A119="",$C119="",$E119=""),"",IF(AND(IF(OR($C119&lt;&gt;"",$E119&lt;&gt;""),AND($A119&lt;&gt;"",$C119&lt;&gt;"",$E119&lt;&gt;""),TRUE()),OR($C119&lt;&gt;"",$E119&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A119)&gt;0,"Заполнены","Не заполнены"),IF(AND($A119&lt;&gt;"",$C119&lt;&gt;"",$E119&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="D122" s="60" t="n"/>
       <c r="E122" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="62">
         <f>IF(AND($A122="",$C122="",$E122=""),"",IF(AND(IF(OR($C122&lt;&gt;"",$E122&lt;&gt;""),AND($A122&lt;&gt;"",$C122&lt;&gt;"",$E122&lt;&gt;""),TRUE()),OR($C122&lt;&gt;"",$E122&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A122)&gt;0,"Заполнены","Не заполнены"),IF(AND($A122&lt;&gt;"",$C122&lt;&gt;"",$E122&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34321,7 +34321,7 @@
       </c>
       <c r="D123" s="60" t="n"/>
       <c r="E123" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" s="62">
         <f>IF(AND($A123="",$C123="",$E123=""),"",IF(AND(IF(OR($C123&lt;&gt;"",$E123&lt;&gt;""),AND($A123&lt;&gt;"",$C123&lt;&gt;"",$E123&lt;&gt;""),TRUE()),OR($C123&lt;&gt;"",$E123&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A123)&gt;0,"Заполнены","Не заполнены"),IF(AND($A123&lt;&gt;"",$C123&lt;&gt;"",$E123&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34413,7 +34413,7 @@
       </c>
       <c r="D125" s="60" t="n"/>
       <c r="E125" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" s="62">
         <f>IF(AND($A125="",$C125="",$E125=""),"",IF(AND(IF(OR($C125&lt;&gt;"",$E125&lt;&gt;""),AND($A125&lt;&gt;"",$C125&lt;&gt;"",$E125&lt;&gt;""),TRUE()),OR($C125&lt;&gt;"",$E125&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A125)&gt;0,"Заполнены","Не заполнены"),IF(AND($A125&lt;&gt;"",$C125&lt;&gt;"",$E125&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34459,7 +34459,7 @@
       </c>
       <c r="D126" s="60" t="n"/>
       <c r="E126" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="62">
         <f>IF(AND($A126="",$C126="",$E126=""),"",IF(AND(IF(OR($C126&lt;&gt;"",$E126&lt;&gt;""),AND($A126&lt;&gt;"",$C126&lt;&gt;"",$E126&lt;&gt;""),TRUE()),OR($C126&lt;&gt;"",$E126&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A126)&gt;0,"Заполнены","Не заполнены"),IF(AND($A126&lt;&gt;"",$C126&lt;&gt;"",$E126&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34505,7 +34505,7 @@
       </c>
       <c r="D127" s="60" t="n"/>
       <c r="E127" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="62">
         <f>IF(AND($A127="",$C127="",$E127=""),"",IF(AND(IF(OR($C127&lt;&gt;"",$E127&lt;&gt;""),AND($A127&lt;&gt;"",$C127&lt;&gt;"",$E127&lt;&gt;""),TRUE()),OR($C127&lt;&gt;"",$E127&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A127)&gt;0,"Заполнены","Не заполнены"),IF(AND($A127&lt;&gt;"",$C127&lt;&gt;"",$E127&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34551,7 +34551,7 @@
       </c>
       <c r="D128" s="60" t="n"/>
       <c r="E128" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128" s="62">
         <f>IF(AND($A128="",$C128="",$E128=""),"",IF(AND(IF(OR($C128&lt;&gt;"",$E128&lt;&gt;""),AND($A128&lt;&gt;"",$C128&lt;&gt;"",$E128&lt;&gt;""),TRUE()),OR($C128&lt;&gt;"",$E128&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A128)&gt;0,"Заполнены","Не заполнены"),IF(AND($A128&lt;&gt;"",$C128&lt;&gt;"",$E128&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34639,7 +34639,7 @@
       </c>
       <c r="D130" s="60" t="n"/>
       <c r="E130" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="62">
         <f>IF(AND($A130="",$C130="",$E130=""),"",IF(AND(IF(OR($C130&lt;&gt;"",$E130&lt;&gt;""),AND($A130&lt;&gt;"",$C130&lt;&gt;"",$E130&lt;&gt;""),TRUE()),OR($C130&lt;&gt;"",$E130&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A130)&gt;0,"Заполнены","Не заполнены"),IF(AND($A130&lt;&gt;"",$C130&lt;&gt;"",$E130&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="D131" s="60" t="n"/>
       <c r="E131" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="62">
         <f>IF(AND($A131="",$C131="",$E131=""),"",IF(AND(IF(OR($C131&lt;&gt;"",$E131&lt;&gt;""),AND($A131&lt;&gt;"",$C131&lt;&gt;"",$E131&lt;&gt;""),TRUE()),OR($C131&lt;&gt;"",$E131&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A131)&gt;0,"Заполнены","Не заполнены"),IF(AND($A131&lt;&gt;"",$C131&lt;&gt;"",$E131&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34731,7 +34731,7 @@
       </c>
       <c r="D132" s="60" t="n"/>
       <c r="E132" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="62">
         <f>IF(AND($A132="",$C132="",$E132=""),"",IF(AND(IF(OR($C132&lt;&gt;"",$E132&lt;&gt;""),AND($A132&lt;&gt;"",$C132&lt;&gt;"",$E132&lt;&gt;""),TRUE()),OR($C132&lt;&gt;"",$E132&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A132)&gt;0,"Заполнены","Не заполнены"),IF(AND($A132&lt;&gt;"",$C132&lt;&gt;"",$E132&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34777,7 +34777,7 @@
       </c>
       <c r="D133" s="60" t="n"/>
       <c r="E133" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" s="62">
         <f>IF(AND($A133="",$C133="",$E133=""),"",IF(AND(IF(OR($C133&lt;&gt;"",$E133&lt;&gt;""),AND($A133&lt;&gt;"",$C133&lt;&gt;"",$E133&lt;&gt;""),TRUE()),OR($C133&lt;&gt;"",$E133&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A133)&gt;0,"Заполнены","Не заполнены"),IF(AND($A133&lt;&gt;"",$C133&lt;&gt;"",$E133&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -34823,7 +34823,7 @@
       </c>
       <c r="D134" s="60" t="n"/>
       <c r="E134" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="62">
         <f>IF(AND($A134="",$C134="",$E134=""),"",IF(AND(IF(OR($C134&lt;&gt;"",$E134&lt;&gt;""),AND($A134&lt;&gt;"",$C134&lt;&gt;"",$E134&lt;&gt;""),TRUE()),OR($C134&lt;&gt;"",$E134&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A134)&gt;0,"Заполнены","Не заполнены"),IF(AND($A134&lt;&gt;"",$C134&lt;&gt;"",$E134&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35129,7 +35129,7 @@
       </c>
       <c r="D141" s="60" t="n"/>
       <c r="E141" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F141" s="62">
         <f>IF(AND($A141="",$C141="",$E141=""),"",IF(AND(IF(OR($C141&lt;&gt;"",$E141&lt;&gt;""),AND($A141&lt;&gt;"",$C141&lt;&gt;"",$E141&lt;&gt;""),TRUE()),OR($C141&lt;&gt;"",$E141&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A141)&gt;0,"Заполнены","Не заполнены"),IF(AND($A141&lt;&gt;"",$C141&lt;&gt;"",$E141&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35175,7 +35175,7 @@
       </c>
       <c r="D142" s="60" t="n"/>
       <c r="E142" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F142" s="62">
         <f>IF(AND($A142="",$C142="",$E142=""),"",IF(AND(IF(OR($C142&lt;&gt;"",$E142&lt;&gt;""),AND($A142&lt;&gt;"",$C142&lt;&gt;"",$E142&lt;&gt;""),TRUE()),OR($C142&lt;&gt;"",$E142&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A142)&gt;0,"Заполнены","Не заполнены"),IF(AND($A142&lt;&gt;"",$C142&lt;&gt;"",$E142&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35221,7 +35221,7 @@
       </c>
       <c r="D143" s="60" t="n"/>
       <c r="E143" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="62">
         <f>IF(AND($A143="",$C143="",$E143=""),"",IF(AND(IF(OR($C143&lt;&gt;"",$E143&lt;&gt;""),AND($A143&lt;&gt;"",$C143&lt;&gt;"",$E143&lt;&gt;""),TRUE()),OR($C143&lt;&gt;"",$E143&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A143)&gt;0,"Заполнены","Не заполнены"),IF(AND($A143&lt;&gt;"",$C143&lt;&gt;"",$E143&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35267,7 +35267,7 @@
       </c>
       <c r="D144" s="60" t="n"/>
       <c r="E144" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F144" s="62">
         <f>IF(AND($A144="",$C144="",$E144=""),"",IF(AND(IF(OR($C144&lt;&gt;"",$E144&lt;&gt;""),AND($A144&lt;&gt;"",$C144&lt;&gt;"",$E144&lt;&gt;""),TRUE()),OR($C144&lt;&gt;"",$E144&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A144)&gt;0,"Заполнены","Не заполнены"),IF(AND($A144&lt;&gt;"",$C144&lt;&gt;"",$E144&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35313,7 +35313,7 @@
       </c>
       <c r="D145" s="60" t="n"/>
       <c r="E145" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F145" s="62">
         <f>IF(AND($A145="",$C145="",$E145=""),"",IF(AND(IF(OR($C145&lt;&gt;"",$E145&lt;&gt;""),AND($A145&lt;&gt;"",$C145&lt;&gt;"",$E145&lt;&gt;""),TRUE()),OR($C145&lt;&gt;"",$E145&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A145)&gt;0,"Заполнены","Не заполнены"),IF(AND($A145&lt;&gt;"",$C145&lt;&gt;"",$E145&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35485,7 +35485,7 @@
       </c>
       <c r="D149" s="60" t="n"/>
       <c r="E149" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149" s="62">
         <f>IF(AND($A149="",$C149="",$E149=""),"",IF(AND(IF(OR($C149&lt;&gt;"",$E149&lt;&gt;""),AND($A149&lt;&gt;"",$C149&lt;&gt;"",$E149&lt;&gt;""),TRUE()),OR($C149&lt;&gt;"",$E149&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A149)&gt;0,"Заполнены","Не заполнены"),IF(AND($A149&lt;&gt;"",$C149&lt;&gt;"",$E149&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35531,7 +35531,7 @@
       </c>
       <c r="D150" s="60" t="n"/>
       <c r="E150" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150" s="62">
         <f>IF(AND($A150="",$C150="",$E150=""),"",IF(AND(IF(OR($C150&lt;&gt;"",$E150&lt;&gt;""),AND($A150&lt;&gt;"",$C150&lt;&gt;"",$E150&lt;&gt;""),TRUE()),OR($C150&lt;&gt;"",$E150&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A150)&gt;0,"Заполнены","Не заполнены"),IF(AND($A150&lt;&gt;"",$C150&lt;&gt;"",$E150&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35661,7 +35661,7 @@
       </c>
       <c r="D153" s="60" t="n"/>
       <c r="E153" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" s="62">
         <f>IF(AND($A153="",$C153="",$E153=""),"",IF(AND(IF(OR($C153&lt;&gt;"",$E153&lt;&gt;""),AND($A153&lt;&gt;"",$C153&lt;&gt;"",$E153&lt;&gt;""),TRUE()),OR($C153&lt;&gt;"",$E153&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A153)&gt;0,"Заполнены","Не заполнены"),IF(AND($A153&lt;&gt;"",$C153&lt;&gt;"",$E153&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35707,7 +35707,7 @@
       </c>
       <c r="D154" s="60" t="n"/>
       <c r="E154" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="62">
         <f>IF(AND($A154="",$C154="",$E154=""),"",IF(AND(IF(OR($C154&lt;&gt;"",$E154&lt;&gt;""),AND($A154&lt;&gt;"",$C154&lt;&gt;"",$E154&lt;&gt;""),TRUE()),OR($C154&lt;&gt;"",$E154&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A154)&gt;0,"Заполнены","Не заполнены"),IF(AND($A154&lt;&gt;"",$C154&lt;&gt;"",$E154&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="D156" s="60" t="n"/>
       <c r="E156" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" s="62">
         <f>IF(AND($A156="",$C156="",$E156=""),"",IF(AND(IF(OR($C156&lt;&gt;"",$E156&lt;&gt;""),AND($A156&lt;&gt;"",$C156&lt;&gt;"",$E156&lt;&gt;""),TRUE()),OR($C156&lt;&gt;"",$E156&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A156)&gt;0,"Заполнены","Не заполнены"),IF(AND($A156&lt;&gt;"",$C156&lt;&gt;"",$E156&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35841,7 +35841,7 @@
       </c>
       <c r="D157" s="60" t="n"/>
       <c r="E157" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F157" s="62">
         <f>IF(AND($A157="",$C157="",$E157=""),"",IF(AND(IF(OR($C157&lt;&gt;"",$E157&lt;&gt;""),AND($A157&lt;&gt;"",$C157&lt;&gt;"",$E157&lt;&gt;""),TRUE()),OR($C157&lt;&gt;"",$E157&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A157)&gt;0,"Заполнены","Не заполнены"),IF(AND($A157&lt;&gt;"",$C157&lt;&gt;"",$E157&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35887,7 +35887,7 @@
       </c>
       <c r="D158" s="60" t="n"/>
       <c r="E158" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="62">
         <f>IF(AND($A158="",$C158="",$E158=""),"",IF(AND(IF(OR($C158&lt;&gt;"",$E158&lt;&gt;""),AND($A158&lt;&gt;"",$C158&lt;&gt;"",$E158&lt;&gt;""),TRUE()),OR($C158&lt;&gt;"",$E158&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A158)&gt;0,"Заполнены","Не заполнены"),IF(AND($A158&lt;&gt;"",$C158&lt;&gt;"",$E158&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35933,7 +35933,7 @@
       </c>
       <c r="D159" s="60" t="n"/>
       <c r="E159" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F159" s="62">
         <f>IF(AND($A159="",$C159="",$E159=""),"",IF(AND(IF(OR($C159&lt;&gt;"",$E159&lt;&gt;""),AND($A159&lt;&gt;"",$C159&lt;&gt;"",$E159&lt;&gt;""),TRUE()),OR($C159&lt;&gt;"",$E159&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A159)&gt;0,"Заполнены","Не заполнены"),IF(AND($A159&lt;&gt;"",$C159&lt;&gt;"",$E159&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -35979,7 +35979,7 @@
       </c>
       <c r="D160" s="60" t="n"/>
       <c r="E160" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="62">
         <f>IF(AND($A160="",$C160="",$E160=""),"",IF(AND(IF(OR($C160&lt;&gt;"",$E160&lt;&gt;""),AND($A160&lt;&gt;"",$C160&lt;&gt;"",$E160&lt;&gt;""),TRUE()),OR($C160&lt;&gt;"",$E160&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A160)&gt;0,"Заполнены","Не заполнены"),IF(AND($A160&lt;&gt;"",$C160&lt;&gt;"",$E160&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36025,7 +36025,7 @@
       </c>
       <c r="D161" s="60" t="n"/>
       <c r="E161" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" s="62">
         <f>IF(AND($A161="",$C161="",$E161=""),"",IF(AND(IF(OR($C161&lt;&gt;"",$E161&lt;&gt;""),AND($A161&lt;&gt;"",$C161&lt;&gt;"",$E161&lt;&gt;""),TRUE()),OR($C161&lt;&gt;"",$E161&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A161)&gt;0,"Заполнены","Не заполнены"),IF(AND($A161&lt;&gt;"",$C161&lt;&gt;"",$E161&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36071,7 +36071,7 @@
       </c>
       <c r="D162" s="60" t="n"/>
       <c r="E162" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F162" s="62">
         <f>IF(AND($A162="",$C162="",$E162=""),"",IF(AND(IF(OR($C162&lt;&gt;"",$E162&lt;&gt;""),AND($A162&lt;&gt;"",$C162&lt;&gt;"",$E162&lt;&gt;""),TRUE()),OR($C162&lt;&gt;"",$E162&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A162)&gt;0,"Заполнены","Не заполнены"),IF(AND($A162&lt;&gt;"",$C162&lt;&gt;"",$E162&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36117,7 +36117,7 @@
       </c>
       <c r="D163" s="60" t="n"/>
       <c r="E163" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F163" s="62">
         <f>IF(AND($A163="",$C163="",$E163=""),"",IF(AND(IF(OR($C163&lt;&gt;"",$E163&lt;&gt;""),AND($A163&lt;&gt;"",$C163&lt;&gt;"",$E163&lt;&gt;""),TRUE()),OR($C163&lt;&gt;"",$E163&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A163)&gt;0,"Заполнены","Не заполнены"),IF(AND($A163&lt;&gt;"",$C163&lt;&gt;"",$E163&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36163,7 +36163,7 @@
       </c>
       <c r="D164" s="60" t="n"/>
       <c r="E164" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="62">
         <f>IF(AND($A164="",$C164="",$E164=""),"",IF(AND(IF(OR($C164&lt;&gt;"",$E164&lt;&gt;""),AND($A164&lt;&gt;"",$C164&lt;&gt;"",$E164&lt;&gt;""),TRUE()),OR($C164&lt;&gt;"",$E164&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A164)&gt;0,"Заполнены","Не заполнены"),IF(AND($A164&lt;&gt;"",$C164&lt;&gt;"",$E164&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36343,7 +36343,7 @@
       </c>
       <c r="D168" s="60" t="n"/>
       <c r="E168" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F168" s="62">
         <f>IF(AND($A168="",$C168="",$E168=""),"",IF(AND(IF(OR($C168&lt;&gt;"",$E168&lt;&gt;""),AND($A168&lt;&gt;"",$C168&lt;&gt;"",$E168&lt;&gt;""),TRUE()),OR($C168&lt;&gt;"",$E168&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A168)&gt;0,"Заполнены","Не заполнены"),IF(AND($A168&lt;&gt;"",$C168&lt;&gt;"",$E168&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36389,7 +36389,7 @@
       </c>
       <c r="D169" s="60" t="n"/>
       <c r="E169" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" s="62">
         <f>IF(AND($A169="",$C169="",$E169=""),"",IF(AND(IF(OR($C169&lt;&gt;"",$E169&lt;&gt;""),AND($A169&lt;&gt;"",$C169&lt;&gt;"",$E169&lt;&gt;""),TRUE()),OR($C169&lt;&gt;"",$E169&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A169)&gt;0,"Заполнены","Не заполнены"),IF(AND($A169&lt;&gt;"",$C169&lt;&gt;"",$E169&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="D170" s="60" t="n"/>
       <c r="E170" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F170" s="62">
         <f>IF(AND($A170="",$C170="",$E170=""),"",IF(AND(IF(OR($C170&lt;&gt;"",$E170&lt;&gt;""),AND($A170&lt;&gt;"",$C170&lt;&gt;"",$E170&lt;&gt;""),TRUE()),OR($C170&lt;&gt;"",$E170&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A170)&gt;0,"Заполнены","Не заполнены"),IF(AND($A170&lt;&gt;"",$C170&lt;&gt;"",$E170&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36481,7 +36481,7 @@
       </c>
       <c r="D171" s="60" t="n"/>
       <c r="E171" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F171" s="62">
         <f>IF(AND($A171="",$C171="",$E171=""),"",IF(AND(IF(OR($C171&lt;&gt;"",$E171&lt;&gt;""),AND($A171&lt;&gt;"",$C171&lt;&gt;"",$E171&lt;&gt;""),TRUE()),OR($C171&lt;&gt;"",$E171&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A171)&gt;0,"Заполнены","Не заполнены"),IF(AND($A171&lt;&gt;"",$C171&lt;&gt;"",$E171&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36527,7 +36527,7 @@
       </c>
       <c r="D172" s="60" t="n"/>
       <c r="E172" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F172" s="62">
         <f>IF(AND($A172="",$C172="",$E172=""),"",IF(AND(IF(OR($C172&lt;&gt;"",$E172&lt;&gt;""),AND($A172&lt;&gt;"",$C172&lt;&gt;"",$E172&lt;&gt;""),TRUE()),OR($C172&lt;&gt;"",$E172&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A172)&gt;0,"Заполнены","Не заполнены"),IF(AND($A172&lt;&gt;"",$C172&lt;&gt;"",$E172&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36657,7 +36657,7 @@
       </c>
       <c r="D175" s="60" t="n"/>
       <c r="E175" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" s="62">
         <f>IF(AND($A175="",$C175="",$E175=""),"",IF(AND(IF(OR($C175&lt;&gt;"",$E175&lt;&gt;""),AND($A175&lt;&gt;"",$C175&lt;&gt;"",$E175&lt;&gt;""),TRUE()),OR($C175&lt;&gt;"",$E175&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A175)&gt;0,"Заполнены","Не заполнены"),IF(AND($A175&lt;&gt;"",$C175&lt;&gt;"",$E175&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36749,7 +36749,7 @@
       </c>
       <c r="D177" s="60" t="n"/>
       <c r="E177" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" s="62">
         <f>IF(AND($A177="",$C177="",$E177=""),"",IF(AND(IF(OR($C177&lt;&gt;"",$E177&lt;&gt;""),AND($A177&lt;&gt;"",$C177&lt;&gt;"",$E177&lt;&gt;""),TRUE()),OR($C177&lt;&gt;"",$E177&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A177)&gt;0,"Заполнены","Не заполнены"),IF(AND($A177&lt;&gt;"",$C177&lt;&gt;"",$E177&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36933,7 +36933,7 @@
       </c>
       <c r="D181" s="60" t="n"/>
       <c r="E181" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F181" s="62">
         <f>IF(AND($A181="",$C181="",$E181=""),"",IF(AND(IF(OR($C181&lt;&gt;"",$E181&lt;&gt;""),AND($A181&lt;&gt;"",$C181&lt;&gt;"",$E181&lt;&gt;""),TRUE()),OR($C181&lt;&gt;"",$E181&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A181)&gt;0,"Заполнены","Не заполнены"),IF(AND($A181&lt;&gt;"",$C181&lt;&gt;"",$E181&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -36979,7 +36979,7 @@
       </c>
       <c r="D182" s="60" t="n"/>
       <c r="E182" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" s="62">
         <f>IF(AND($A182="",$C182="",$E182=""),"",IF(AND(IF(OR($C182&lt;&gt;"",$E182&lt;&gt;""),AND($A182&lt;&gt;"",$C182&lt;&gt;"",$E182&lt;&gt;""),TRUE()),OR($C182&lt;&gt;"",$E182&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A182)&gt;0,"Заполнены","Не заполнены"),IF(AND($A182&lt;&gt;"",$C182&lt;&gt;"",$E182&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37025,7 +37025,7 @@
       </c>
       <c r="D183" s="60" t="n"/>
       <c r="E183" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" s="62">
         <f>IF(AND($A183="",$C183="",$E183=""),"",IF(AND(IF(OR($C183&lt;&gt;"",$E183&lt;&gt;""),AND($A183&lt;&gt;"",$C183&lt;&gt;"",$E183&lt;&gt;""),TRUE()),OR($C183&lt;&gt;"",$E183&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A183)&gt;0,"Заполнены","Не заполнены"),IF(AND($A183&lt;&gt;"",$C183&lt;&gt;"",$E183&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37113,7 +37113,7 @@
       </c>
       <c r="D185" s="60" t="n"/>
       <c r="E185" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="62">
         <f>IF(AND($A185="",$C185="",$E185=""),"",IF(AND(IF(OR($C185&lt;&gt;"",$E185&lt;&gt;""),AND($A185&lt;&gt;"",$C185&lt;&gt;"",$E185&lt;&gt;""),TRUE()),OR($C185&lt;&gt;"",$E185&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A185)&gt;0,"Заполнены","Не заполнены"),IF(AND($A185&lt;&gt;"",$C185&lt;&gt;"",$E185&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37159,7 +37159,7 @@
       </c>
       <c r="D186" s="60" t="n"/>
       <c r="E186" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="62">
         <f>IF(AND($A186="",$C186="",$E186=""),"",IF(AND(IF(OR($C186&lt;&gt;"",$E186&lt;&gt;""),AND($A186&lt;&gt;"",$C186&lt;&gt;"",$E186&lt;&gt;""),TRUE()),OR($C186&lt;&gt;"",$E186&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A186)&gt;0,"Заполнены","Не заполнены"),IF(AND($A186&lt;&gt;"",$C186&lt;&gt;"",$E186&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37205,7 +37205,7 @@
       </c>
       <c r="D187" s="60" t="n"/>
       <c r="E187" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F187" s="62">
         <f>IF(AND($A187="",$C187="",$E187=""),"",IF(AND(IF(OR($C187&lt;&gt;"",$E187&lt;&gt;""),AND($A187&lt;&gt;"",$C187&lt;&gt;"",$E187&lt;&gt;""),TRUE()),OR($C187&lt;&gt;"",$E187&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A187)&gt;0,"Заполнены","Не заполнены"),IF(AND($A187&lt;&gt;"",$C187&lt;&gt;"",$E187&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37251,7 +37251,7 @@
       </c>
       <c r="D188" s="60" t="n"/>
       <c r="E188" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" s="62">
         <f>IF(AND($A188="",$C188="",$E188=""),"",IF(AND(IF(OR($C188&lt;&gt;"",$E188&lt;&gt;""),AND($A188&lt;&gt;"",$C188&lt;&gt;"",$E188&lt;&gt;""),TRUE()),OR($C188&lt;&gt;"",$E188&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A188)&gt;0,"Заполнены","Не заполнены"),IF(AND($A188&lt;&gt;"",$C188&lt;&gt;"",$E188&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37297,7 +37297,7 @@
       </c>
       <c r="D189" s="60" t="n"/>
       <c r="E189" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" s="62">
         <f>IF(AND($A189="",$C189="",$E189=""),"",IF(AND(IF(OR($C189&lt;&gt;"",$E189&lt;&gt;""),AND($A189&lt;&gt;"",$C189&lt;&gt;"",$E189&lt;&gt;""),TRUE()),OR($C189&lt;&gt;"",$E189&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A189)&gt;0,"Заполнены","Не заполнены"),IF(AND($A189&lt;&gt;"",$C189&lt;&gt;"",$E189&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37389,7 +37389,7 @@
       </c>
       <c r="D191" s="60" t="n"/>
       <c r="E191" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="62">
         <f>IF(AND($A191="",$C191="",$E191=""),"",IF(AND(IF(OR($C191&lt;&gt;"",$E191&lt;&gt;""),AND($A191&lt;&gt;"",$C191&lt;&gt;"",$E191&lt;&gt;""),TRUE()),OR($C191&lt;&gt;"",$E191&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A191)&gt;0,"Заполнены","Не заполнены"),IF(AND($A191&lt;&gt;"",$C191&lt;&gt;"",$E191&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37435,7 +37435,7 @@
       </c>
       <c r="D192" s="60" t="n"/>
       <c r="E192" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F192" s="62">
         <f>IF(AND($A192="",$C192="",$E192=""),"",IF(AND(IF(OR($C192&lt;&gt;"",$E192&lt;&gt;""),AND($A192&lt;&gt;"",$C192&lt;&gt;"",$E192&lt;&gt;""),TRUE()),OR($C192&lt;&gt;"",$E192&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A192)&gt;0,"Заполнены","Не заполнены"),IF(AND($A192&lt;&gt;"",$C192&lt;&gt;"",$E192&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37481,7 +37481,7 @@
       </c>
       <c r="D193" s="60" t="n"/>
       <c r="E193" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F193" s="62">
         <f>IF(AND($A193="",$C193="",$E193=""),"",IF(AND(IF(OR($C193&lt;&gt;"",$E193&lt;&gt;""),AND($A193&lt;&gt;"",$C193&lt;&gt;"",$E193&lt;&gt;""),TRUE()),OR($C193&lt;&gt;"",$E193&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A193)&gt;0,"Заполнены","Не заполнены"),IF(AND($A193&lt;&gt;"",$C193&lt;&gt;"",$E193&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37527,7 +37527,7 @@
       </c>
       <c r="D194" s="60" t="n"/>
       <c r="E194" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F194" s="62">
         <f>IF(AND($A194="",$C194="",$E194=""),"",IF(AND(IF(OR($C194&lt;&gt;"",$E194&lt;&gt;""),AND($A194&lt;&gt;"",$C194&lt;&gt;"",$E194&lt;&gt;""),TRUE()),OR($C194&lt;&gt;"",$E194&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A194)&gt;0,"Заполнены","Не заполнены"),IF(AND($A194&lt;&gt;"",$C194&lt;&gt;"",$E194&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37573,7 +37573,7 @@
       </c>
       <c r="D195" s="60" t="n"/>
       <c r="E195" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F195" s="62">
         <f>IF(AND($A195="",$C195="",$E195=""),"",IF(AND(IF(OR($C195&lt;&gt;"",$E195&lt;&gt;""),AND($A195&lt;&gt;"",$C195&lt;&gt;"",$E195&lt;&gt;""),TRUE()),OR($C195&lt;&gt;"",$E195&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A195)&gt;0,"Заполнены","Не заполнены"),IF(AND($A195&lt;&gt;"",$C195&lt;&gt;"",$E195&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37619,7 +37619,7 @@
       </c>
       <c r="D196" s="60" t="n"/>
       <c r="E196" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F196" s="62">
         <f>IF(AND($A196="",$C196="",$E196=""),"",IF(AND(IF(OR($C196&lt;&gt;"",$E196&lt;&gt;""),AND($A196&lt;&gt;"",$C196&lt;&gt;"",$E196&lt;&gt;""),TRUE()),OR($C196&lt;&gt;"",$E196&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A196)&gt;0,"Заполнены","Не заполнены"),IF(AND($A196&lt;&gt;"",$C196&lt;&gt;"",$E196&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37665,7 +37665,7 @@
       </c>
       <c r="D197" s="60" t="n"/>
       <c r="E197" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F197" s="62">
         <f>IF(AND($A197="",$C197="",$E197=""),"",IF(AND(IF(OR($C197&lt;&gt;"",$E197&lt;&gt;""),AND($A197&lt;&gt;"",$C197&lt;&gt;"",$E197&lt;&gt;""),TRUE()),OR($C197&lt;&gt;"",$E197&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A197)&gt;0,"Заполнены","Не заполнены"),IF(AND($A197&lt;&gt;"",$C197&lt;&gt;"",$E197&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37711,7 +37711,7 @@
       </c>
       <c r="D198" s="60" t="n"/>
       <c r="E198" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" s="62">
         <f>IF(AND($A198="",$C198="",$E198=""),"",IF(AND(IF(OR($C198&lt;&gt;"",$E198&lt;&gt;""),AND($A198&lt;&gt;"",$C198&lt;&gt;"",$E198&lt;&gt;""),TRUE()),OR($C198&lt;&gt;"",$E198&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A198)&gt;0,"Заполнены","Не заполнены"),IF(AND($A198&lt;&gt;"",$C198&lt;&gt;"",$E198&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37757,7 +37757,7 @@
       </c>
       <c r="D199" s="60" t="n"/>
       <c r="E199" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" s="62">
         <f>IF(AND($A199="",$C199="",$E199=""),"",IF(AND(IF(OR($C199&lt;&gt;"",$E199&lt;&gt;""),AND($A199&lt;&gt;"",$C199&lt;&gt;"",$E199&lt;&gt;""),TRUE()),OR($C199&lt;&gt;"",$E199&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A199)&gt;0,"Заполнены","Не заполнены"),IF(AND($A199&lt;&gt;"",$C199&lt;&gt;"",$E199&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37803,7 +37803,7 @@
       </c>
       <c r="D200" s="60" t="n"/>
       <c r="E200" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" s="62">
         <f>IF(AND($A200="",$C200="",$E200=""),"",IF(AND(IF(OR($C200&lt;&gt;"",$E200&lt;&gt;""),AND($A200&lt;&gt;"",$C200&lt;&gt;"",$E200&lt;&gt;""),TRUE()),OR($C200&lt;&gt;"",$E200&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A200)&gt;0,"Заполнены","Не заполнены"),IF(AND($A200&lt;&gt;"",$C200&lt;&gt;"",$E200&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -37895,7 +37895,7 @@
       </c>
       <c r="D202" s="60" t="n"/>
       <c r="E202" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" s="62">
         <f>IF(AND($A202="",$C202="",$E202=""),"",IF(AND(IF(OR($C202&lt;&gt;"",$E202&lt;&gt;""),AND($A202&lt;&gt;"",$C202&lt;&gt;"",$E202&lt;&gt;""),TRUE()),OR($C202&lt;&gt;"",$E202&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A202)&gt;0,"Заполнены","Не заполнены"),IF(AND($A202&lt;&gt;"",$C202&lt;&gt;"",$E202&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38033,7 +38033,7 @@
       </c>
       <c r="D205" s="60" t="n"/>
       <c r="E205" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="62">
         <f>IF(AND($A205="",$C205="",$E205=""),"",IF(AND(IF(OR($C205&lt;&gt;"",$E205&lt;&gt;""),AND($A205&lt;&gt;"",$C205&lt;&gt;"",$E205&lt;&gt;""),TRUE()),OR($C205&lt;&gt;"",$E205&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A205)&gt;0,"Заполнены","Не заполнены"),IF(AND($A205&lt;&gt;"",$C205&lt;&gt;"",$E205&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38079,7 +38079,7 @@
       </c>
       <c r="D206" s="60" t="n"/>
       <c r="E206" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" s="62">
         <f>IF(AND($A206="",$C206="",$E206=""),"",IF(AND(IF(OR($C206&lt;&gt;"",$E206&lt;&gt;""),AND($A206&lt;&gt;"",$C206&lt;&gt;"",$E206&lt;&gt;""),TRUE()),OR($C206&lt;&gt;"",$E206&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A206)&gt;0,"Заполнены","Не заполнены"),IF(AND($A206&lt;&gt;"",$C206&lt;&gt;"",$E206&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38125,7 +38125,7 @@
       </c>
       <c r="D207" s="60" t="n"/>
       <c r="E207" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F207" s="62">
         <f>IF(AND($A207="",$C207="",$E207=""),"",IF(AND(IF(OR($C207&lt;&gt;"",$E207&lt;&gt;""),AND($A207&lt;&gt;"",$C207&lt;&gt;"",$E207&lt;&gt;""),TRUE()),OR($C207&lt;&gt;"",$E207&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A207)&gt;0,"Заполнены","Не заполнены"),IF(AND($A207&lt;&gt;"",$C207&lt;&gt;"",$E207&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38171,7 +38171,7 @@
       </c>
       <c r="D208" s="60" t="n"/>
       <c r="E208" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" s="62">
         <f>IF(AND($A208="",$C208="",$E208=""),"",IF(AND(IF(OR($C208&lt;&gt;"",$E208&lt;&gt;""),AND($A208&lt;&gt;"",$C208&lt;&gt;"",$E208&lt;&gt;""),TRUE()),OR($C208&lt;&gt;"",$E208&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A208)&gt;0,"Заполнены","Не заполнены"),IF(AND($A208&lt;&gt;"",$C208&lt;&gt;"",$E208&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38217,7 +38217,7 @@
       </c>
       <c r="D209" s="60" t="n"/>
       <c r="E209" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="62">
         <f>IF(AND($A209="",$C209="",$E209=""),"",IF(AND(IF(OR($C209&lt;&gt;"",$E209&lt;&gt;""),AND($A209&lt;&gt;"",$C209&lt;&gt;"",$E209&lt;&gt;""),TRUE()),OR($C209&lt;&gt;"",$E209&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A209)&gt;0,"Заполнены","Не заполнены"),IF(AND($A209&lt;&gt;"",$C209&lt;&gt;"",$E209&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38263,7 +38263,7 @@
       </c>
       <c r="D210" s="60" t="n"/>
       <c r="E210" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="62">
         <f>IF(AND($A210="",$C210="",$E210=""),"",IF(AND(IF(OR($C210&lt;&gt;"",$E210&lt;&gt;""),AND($A210&lt;&gt;"",$C210&lt;&gt;"",$E210&lt;&gt;""),TRUE()),OR($C210&lt;&gt;"",$E210&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A210)&gt;0,"Заполнены","Не заполнены"),IF(AND($A210&lt;&gt;"",$C210&lt;&gt;"",$E210&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38309,7 +38309,7 @@
       </c>
       <c r="D211" s="60" t="n"/>
       <c r="E211" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="62">
         <f>IF(AND($A211="",$C211="",$E211=""),"",IF(AND(IF(OR($C211&lt;&gt;"",$E211&lt;&gt;""),AND($A211&lt;&gt;"",$C211&lt;&gt;"",$E211&lt;&gt;""),TRUE()),OR($C211&lt;&gt;"",$E211&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A211)&gt;0,"Заполнены","Не заполнены"),IF(AND($A211&lt;&gt;"",$C211&lt;&gt;"",$E211&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="D212" s="60" t="n"/>
       <c r="E212" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F212" s="62">
         <f>IF(AND($A212="",$C212="",$E212=""),"",IF(AND(IF(OR($C212&lt;&gt;"",$E212&lt;&gt;""),AND($A212&lt;&gt;"",$C212&lt;&gt;"",$E212&lt;&gt;""),TRUE()),OR($C212&lt;&gt;"",$E212&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A212)&gt;0,"Заполнены","Не заполнены"),IF(AND($A212&lt;&gt;"",$C212&lt;&gt;"",$E212&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38401,7 +38401,7 @@
       </c>
       <c r="D213" s="60" t="n"/>
       <c r="E213" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="62">
         <f>IF(AND($A213="",$C213="",$E213=""),"",IF(AND(IF(OR($C213&lt;&gt;"",$E213&lt;&gt;""),AND($A213&lt;&gt;"",$C213&lt;&gt;"",$E213&lt;&gt;""),TRUE()),OR($C213&lt;&gt;"",$E213&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A213)&gt;0,"Заполнены","Не заполнены"),IF(AND($A213&lt;&gt;"",$C213&lt;&gt;"",$E213&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38535,7 +38535,7 @@
       </c>
       <c r="D216" s="60" t="n"/>
       <c r="E216" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F216" s="62">
         <f>IF(AND($A216="",$C216="",$E216=""),"",IF(AND(IF(OR($C216&lt;&gt;"",$E216&lt;&gt;""),AND($A216&lt;&gt;"",$C216&lt;&gt;"",$E216&lt;&gt;""),TRUE()),OR($C216&lt;&gt;"",$E216&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A216)&gt;0,"Заполнены","Не заполнены"),IF(AND($A216&lt;&gt;"",$C216&lt;&gt;"",$E216&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38581,7 +38581,7 @@
       </c>
       <c r="D217" s="60" t="n"/>
       <c r="E217" s="61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F217" s="62">
         <f>IF(AND($A217="",$C217="",$E217=""),"",IF(AND(IF(OR($C217&lt;&gt;"",$E217&lt;&gt;""),AND($A217&lt;&gt;"",$C217&lt;&gt;"",$E217&lt;&gt;""),TRUE()),OR($C217&lt;&gt;"",$E217&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A217)&gt;0,"Заполнены","Не заполнены"),IF(AND($A217&lt;&gt;"",$C217&lt;&gt;"",$E217&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38627,7 +38627,7 @@
       </c>
       <c r="D218" s="60" t="n"/>
       <c r="E218" s="61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F218" s="62">
         <f>IF(AND($A218="",$C218="",$E218=""),"",IF(AND(IF(OR($C218&lt;&gt;"",$E218&lt;&gt;""),AND($A218&lt;&gt;"",$C218&lt;&gt;"",$E218&lt;&gt;""),TRUE()),OR($C218&lt;&gt;"",$E218&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A218)&gt;0,"Заполнены","Не заполнены"),IF(AND($A218&lt;&gt;"",$C218&lt;&gt;"",$E218&lt;&gt;""),"Заполнены","Не заполнены")))</f>
@@ -38757,7 +38757,7 @@
       </c>
       <c r="D221" s="60" t="n"/>
       <c r="E221" s="61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221" s="62">
         <f>IF(AND($A221="",$C221="",$E221=""),"",IF(AND(IF(OR($C221&lt;&gt;"",$E221&lt;&gt;""),AND($A221&lt;&gt;"",$C221&lt;&gt;"",$E221&lt;&gt;""),TRUE()),OR($C221&lt;&gt;"",$E221&lt;&gt;"")),IF(COUNTIF(Инструкция!$B$9:$B$1000,$A221)&gt;0,"Заполнены","Не заполнены"),IF(AND($A221&lt;&gt;"",$C221&lt;&gt;"",$E221&lt;&gt;""),"Заполнены","Не заполнены")))</f>

--- a/ozon.xlsx
+++ b/ozon.xlsx
@@ -31495,7 +31495,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B60" s="59" t="n"/>
+      <c r="B60" s="59" t="inlineStr">
+        <is>
+          <t>0000032489</t>
+        </is>
+      </c>
       <c r="C60" s="60" t="inlineStr">
         <is>
           <t>ВО 2501 К41</t>
@@ -34003,7 +34007,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B116" s="59" t="n"/>
+      <c r="B116" s="59" t="inlineStr">
+        <is>
+          <t>0000111724</t>
+        </is>
+      </c>
       <c r="C116" s="60" t="inlineStr">
         <is>
           <t>ПВГ 2231 К3</t>
@@ -34945,7 +34953,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B137" s="59" t="n"/>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t>0000092554</t>
+        </is>
+      </c>
       <c r="C137" s="60" t="inlineStr">
         <is>
           <t>ЭС В СН 4231</t>
@@ -34987,7 +34999,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B138" s="59" t="n"/>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t>0000215868</t>
+        </is>
+      </c>
       <c r="C138" s="60" t="inlineStr">
         <is>
           <t>ЭС В СН 4231 К43</t>
@@ -35431,7 +35447,11 @@
           <t>Трайдекс Минск (1020000156256000)</t>
         </is>
       </c>
-      <c r="B148" s="59" t="n"/>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t>0000215869</t>
+        </is>
+      </c>
       <c r="C148" s="60" t="inlineStr">
         <is>
           <t>ЭС В СН 4231 К53</t>
